--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-10.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="167">
   <si>
     <t>League</t>
   </si>
@@ -515,183 +515,6 @@
   </si>
   <si>
     <t>Universidad Cesar Vallejo</t>
-  </si>
-  <si>
-    <t>33175209</t>
-  </si>
-  <si>
-    <t>33175208</t>
-  </si>
-  <si>
-    <t>33175211</t>
-  </si>
-  <si>
-    <t>33174269</t>
-  </si>
-  <si>
-    <t>33174271</t>
-  </si>
-  <si>
-    <t>33167293</t>
-  </si>
-  <si>
-    <t>33174324</t>
-  </si>
-  <si>
-    <t>33174292</t>
-  </si>
-  <si>
-    <t>33167007</t>
-  </si>
-  <si>
-    <t>33167027</t>
-  </si>
-  <si>
-    <t>33174686</t>
-  </si>
-  <si>
-    <t>33167004</t>
-  </si>
-  <si>
-    <t>33174318</t>
-  </si>
-  <si>
-    <t>1.227313260</t>
-  </si>
-  <si>
-    <t>1.227313350</t>
-  </si>
-  <si>
-    <t>1.227313170</t>
-  </si>
-  <si>
-    <t>1.227300482</t>
-  </si>
-  <si>
-    <t>1.227300374</t>
-  </si>
-  <si>
-    <t>1.227159645</t>
-  </si>
-  <si>
-    <t>1.227303843</t>
-  </si>
-  <si>
-    <t>1.227300590</t>
-  </si>
-  <si>
-    <t>1.227154708</t>
-  </si>
-  <si>
-    <t>1.227153520</t>
-  </si>
-  <si>
-    <t>1.227305666</t>
-  </si>
-  <si>
-    <t>1.227154924</t>
-  </si>
-  <si>
-    <t>1.227300698</t>
-  </si>
-  <si>
-    <t>1.227313305</t>
-  </si>
-  <si>
-    <t>1.227313395</t>
-  </si>
-  <si>
-    <t>1.227313215</t>
-  </si>
-  <si>
-    <t>1.227300492</t>
-  </si>
-  <si>
-    <t>1.227300384</t>
-  </si>
-  <si>
-    <t>1.227159655</t>
-  </si>
-  <si>
-    <t>1.227303853</t>
-  </si>
-  <si>
-    <t>1.227300600</t>
-  </si>
-  <si>
-    <t>1.227154718</t>
-  </si>
-  <si>
-    <t>1.227153530</t>
-  </si>
-  <si>
-    <t>1.227305676</t>
-  </si>
-  <si>
-    <t>1.227154934</t>
-  </si>
-  <si>
-    <t>1.227300708</t>
-  </si>
-  <si>
-    <t>1.227300481</t>
-  </si>
-  <si>
-    <t>1.227300373</t>
-  </si>
-  <si>
-    <t>1.227159644</t>
-  </si>
-  <si>
-    <t>1.227303842</t>
-  </si>
-  <si>
-    <t>1.227300589</t>
-  </si>
-  <si>
-    <t>1.227154707</t>
-  </si>
-  <si>
-    <t>1.227153519</t>
-  </si>
-  <si>
-    <t>1.227305665</t>
-  </si>
-  <si>
-    <t>1.227154923</t>
-  </si>
-  <si>
-    <t>1.227300697</t>
-  </si>
-  <si>
-    <t>1.227300491</t>
-  </si>
-  <si>
-    <t>1.227300383</t>
-  </si>
-  <si>
-    <t>1.227159654</t>
-  </si>
-  <si>
-    <t>1.227303852</t>
-  </si>
-  <si>
-    <t>1.227300599</t>
-  </si>
-  <si>
-    <t>1.227154717</t>
-  </si>
-  <si>
-    <t>1.227153529</t>
-  </si>
-  <si>
-    <t>1.227305675</t>
-  </si>
-  <si>
-    <t>1.227154933</t>
-  </si>
-  <si>
-    <t>1.227300707</t>
   </si>
 </sst>
 </file>
@@ -1269,31 +1092,31 @@
         <v>131</v>
       </c>
       <c r="F2">
-        <v>1.93</v>
+        <v>1.63</v>
       </c>
       <c r="G2">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="H2">
-        <v>2.52</v>
+        <v>3.35</v>
       </c>
       <c r="I2">
         <v>870</v>
       </c>
       <c r="J2">
-        <v>1.97</v>
+        <v>1.61</v>
       </c>
       <c r="K2">
-        <v>330</v>
+        <v>950</v>
       </c>
       <c r="L2">
         <v>1.27</v>
       </c>
       <c r="M2">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="N2">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="O2">
         <v>4.6</v>
@@ -1311,31 +1134,31 @@
         <v>1000</v>
       </c>
       <c r="T2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U2">
         <v>1000</v>
       </c>
       <c r="V2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W2">
         <v>1000</v>
       </c>
       <c r="X2">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="Y2">
         <v>1000</v>
       </c>
       <c r="Z2">
-        <v>2.92</v>
+        <v>1.01</v>
       </c>
       <c r="AA2">
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AC2">
         <v>1000</v>
@@ -1347,61 +1170,61 @@
         <v>1000</v>
       </c>
       <c r="AF2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG2">
         <v>1000</v>
       </c>
       <c r="AH2">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="AI2">
         <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AK2">
         <v>1000</v>
       </c>
       <c r="AL2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AM2">
         <v>1000</v>
       </c>
       <c r="AN2">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AO2">
         <v>1000</v>
       </c>
       <c r="AP2">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AQ2">
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS2">
         <v>1000</v>
       </c>
       <c r="AT2">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="AU2">
         <v>1000</v>
       </c>
       <c r="AV2">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AW2">
         <v>1000</v>
       </c>
       <c r="AX2">
-        <v>19.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY2">
         <v>1000</v>
@@ -1466,10 +1289,10 @@
         <v>132</v>
       </c>
       <c r="F3">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G3">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H3">
         <v>3.95</v>
@@ -1478,22 +1301,22 @@
         <v>4.5</v>
       </c>
       <c r="J3">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K3">
         <v>4.5</v>
       </c>
       <c r="L3">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="M3">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="N3">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="O3">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P3">
         <v>1.62</v>
@@ -1663,16 +1486,16 @@
         <v>133</v>
       </c>
       <c r="F4">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="G4">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H4">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="I4">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="J4">
         <v>3.4</v>
@@ -1681,145 +1504,145 @@
         <v>4.2</v>
       </c>
       <c r="L4">
+        <v>1.91</v>
+      </c>
+      <c r="M4">
+        <v>2.22</v>
+      </c>
+      <c r="N4">
+        <v>1.81</v>
+      </c>
+      <c r="O4">
+        <v>2.1</v>
+      </c>
+      <c r="P4">
+        <v>1.66</v>
+      </c>
+      <c r="Q4">
         <v>1.9</v>
       </c>
-      <c r="M4">
-        <v>2.2</v>
-      </c>
-      <c r="N4">
-        <v>1.83</v>
-      </c>
-      <c r="O4">
-        <v>2.12</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>167</v>
+        <v>1000</v>
+      </c>
+      <c r="BF4">
+        <v>33175209</v>
       </c>
       <c r="BG4">
         <v>40285964</v>
@@ -1830,11 +1653,11 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>180</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>193</v>
+      <c r="BJ4">
+        <v>1.22731326</v>
+      </c>
+      <c r="BK4">
+        <v>1.227313305</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -1863,157 +1686,157 @@
         <v>2.16</v>
       </c>
       <c r="G5">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H5">
         <v>3.2</v>
       </c>
       <c r="I5">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J5">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K5">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L5">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="M5">
         <v>2.3</v>
       </c>
       <c r="N5">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O5">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF5">
         <v>33167574</v>
@@ -2057,163 +1880,163 @@
         <v>135</v>
       </c>
       <c r="F6">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G6">
         <v>2.02</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I6">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="J6">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K6">
         <v>4.4</v>
       </c>
       <c r="L6">
+        <v>1.9</v>
+      </c>
+      <c r="M6">
+        <v>2.14</v>
+      </c>
+      <c r="N6">
         <v>1.88</v>
       </c>
-      <c r="M6">
-        <v>2.18</v>
-      </c>
-      <c r="N6">
-        <v>1.84</v>
-      </c>
       <c r="O6">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>168</v>
+        <v>1000</v>
+      </c>
+      <c r="BF6">
+        <v>33175208</v>
       </c>
       <c r="BG6">
         <v>50443280</v>
@@ -2224,11 +2047,11 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>194</v>
+      <c r="BJ6">
+        <v>1.22731335</v>
+      </c>
+      <c r="BK6">
+        <v>1.227313395</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -2257,13 +2080,13 @@
         <v>2.12</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H7">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J7">
         <v>3.35</v>
@@ -2275,7 +2098,7 @@
         <v>1.83</v>
       </c>
       <c r="M7">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="N7">
         <v>1.94</v>
@@ -2284,133 +2107,133 @@
         <v>2.2</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>169</v>
+        <v>1000</v>
+      </c>
+      <c r="BF7">
+        <v>33175211</v>
       </c>
       <c r="BG7">
         <v>11079690</v>
@@ -2421,11 +2244,11 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>195</v>
+      <c r="BJ7">
+        <v>1.22731317</v>
+      </c>
+      <c r="BK7">
+        <v>1.227313215</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -2451,172 +2274,172 @@
         <v>137</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L8">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="M8">
-        <v>110</v>
+        <v>4.5</v>
       </c>
       <c r="N8">
+        <v>1.84</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>1.01</v>
+      </c>
+      <c r="Q8">
+        <v>1000</v>
+      </c>
+      <c r="R8">
+        <v>1.01</v>
+      </c>
+      <c r="S8">
+        <v>1000</v>
+      </c>
+      <c r="T8">
+        <v>4.9</v>
+      </c>
+      <c r="U8">
+        <v>16.5</v>
+      </c>
+      <c r="V8">
+        <v>1.11</v>
+      </c>
+      <c r="W8">
+        <v>1000</v>
+      </c>
+      <c r="X8">
         <v>1.03</v>
       </c>
-      <c r="O8">
-        <v>4.6</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF8">
         <v>33173769</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>3188553</v>
       </c>
       <c r="BH8">
-        <v>0</v>
+        <v>15740271</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ8">
         <v>0</v>
@@ -2845,19 +2668,19 @@
         <v>139</v>
       </c>
       <c r="F10">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="G10">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="H10">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I10">
         <v>870</v>
       </c>
       <c r="J10">
-        <v>3.7</v>
+        <v>1.23</v>
       </c>
       <c r="K10">
         <v>950</v>
@@ -2869,7 +2692,7 @@
         <v>110</v>
       </c>
       <c r="N10">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="O10">
         <v>4.6</v>
@@ -3239,34 +3062,34 @@
         <v>141</v>
       </c>
       <c r="F12">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="G12">
         <v>1.58</v>
       </c>
       <c r="H12">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="I12">
         <v>870</v>
       </c>
       <c r="J12">
-        <v>2.72</v>
+        <v>4.1</v>
       </c>
       <c r="K12">
-        <v>950</v>
+        <v>330</v>
       </c>
       <c r="L12">
         <v>1.27</v>
       </c>
       <c r="M12">
-        <v>110</v>
+        <v>2.64</v>
       </c>
       <c r="N12">
-        <v>1.03</v>
+        <v>1.61</v>
       </c>
       <c r="O12">
-        <v>4.6</v>
+        <v>1.88</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3442,7 +3265,7 @@
         <v>1.49</v>
       </c>
       <c r="H13">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I13">
         <v>8.4</v>
@@ -3454,7 +3277,7 @@
         <v>5.2</v>
       </c>
       <c r="L13">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="M13">
         <v>2.86</v>
@@ -3463,7 +3286,7 @@
         <v>1.54</v>
       </c>
       <c r="O13">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3636,19 +3459,19 @@
         <v>4.7</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H14">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="I14">
         <v>1.92</v>
       </c>
       <c r="J14">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K14">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L14">
         <v>1.8</v>
@@ -3845,7 +3668,7 @@
         <v>3.3</v>
       </c>
       <c r="K15">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L15">
         <v>1.73</v>
@@ -4027,34 +3850,34 @@
         <v>145</v>
       </c>
       <c r="F16">
-        <v>1.3</v>
+        <v>2.26</v>
       </c>
       <c r="G16">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
       <c r="H16">
         <v>3.05</v>
       </c>
       <c r="I16">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K16">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>1.87</v>
       </c>
       <c r="N16">
-        <v>1.03</v>
+        <v>2.14</v>
       </c>
       <c r="O16">
-        <v>4.6</v>
+        <v>2.54</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -4224,10 +4047,10 @@
         <v>146</v>
       </c>
       <c r="F17">
+        <v>1.5</v>
+      </c>
+      <c r="G17">
         <v>1.51</v>
-      </c>
-      <c r="G17">
-        <v>1.52</v>
       </c>
       <c r="H17">
         <v>7.4</v>
@@ -4236,13 +4059,13 @@
         <v>7.8</v>
       </c>
       <c r="J17">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="M17">
         <v>2.54</v>
@@ -4251,7 +4074,7 @@
         <v>1.65</v>
       </c>
       <c r="O17">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -4421,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="F18">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G18">
         <v>2.5</v>
@@ -4618,10 +4441,10 @@
         <v>148</v>
       </c>
       <c r="F19">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G19">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="H19">
         <v>4.6</v>
@@ -4630,10 +4453,10 @@
         <v>4.7</v>
       </c>
       <c r="J19">
+        <v>3.65</v>
+      </c>
+      <c r="K19">
         <v>3.7</v>
-      </c>
-      <c r="K19">
-        <v>3.75</v>
       </c>
       <c r="L19">
         <v>1.78</v>
@@ -4815,37 +4638,37 @@
         <v>149</v>
       </c>
       <c r="F20">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="G20">
         <v>12.5</v>
       </c>
       <c r="H20">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="I20">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="J20">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K20">
         <v>6.8</v>
       </c>
       <c r="L20">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="M20">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="N20">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="O20">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P20">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="Q20">
         <v>2.1</v>
@@ -4854,46 +4677,46 @@
         <v>1.92</v>
       </c>
       <c r="S20">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="T20">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="U20">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V20">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="W20">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="X20">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Y20">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z20">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AA20">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB20">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AC20">
         <v>980</v>
       </c>
       <c r="AD20">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE20">
         <v>18</v>
       </c>
       <c r="AF20">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG20">
         <v>13</v>
@@ -4905,67 +4728,67 @@
         <v>16.5</v>
       </c>
       <c r="AJ20">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AK20">
         <v>980</v>
       </c>
       <c r="AL20">
-        <v>28</v>
+        <v>5.3</v>
       </c>
       <c r="AM20">
         <v>980</v>
       </c>
       <c r="AN20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO20">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AP20">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ20">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AR20">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="AS20">
         <v>980</v>
       </c>
       <c r="AT20">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AU20">
         <v>980</v>
       </c>
       <c r="AV20">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AW20">
         <v>980</v>
       </c>
       <c r="AX20">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AY20">
         <v>980</v>
       </c>
       <c r="AZ20">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="BA20">
         <v>980</v>
       </c>
       <c r="BB20">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="BC20">
         <v>4.6</v>
       </c>
       <c r="BD20">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="BE20">
         <v>1000</v>
@@ -5012,31 +4835,31 @@
         <v>150</v>
       </c>
       <c r="F21">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G21">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H21">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I21">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J21">
         <v>3.4</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L21">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O21">
         <v>2.24</v>
@@ -5209,34 +5032,34 @@
         <v>151</v>
       </c>
       <c r="F22">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G22">
         <v>1.31</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J22">
         <v>6</v>
       </c>
       <c r="K22">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L22">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="M22">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="N22">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="O22">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -5412,10 +5235,10 @@
         <v>2.04</v>
       </c>
       <c r="H23">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I23">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J23">
         <v>3.95</v>
@@ -5436,7 +5259,7 @@
         <v>1.81</v>
       </c>
       <c r="P23">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q23">
         <v>1.73</v>
@@ -5454,7 +5277,7 @@
         <v>18.5</v>
       </c>
       <c r="V23">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="W23">
         <v>18.5</v>
@@ -5484,7 +5307,7 @@
         <v>9</v>
       </c>
       <c r="AF23">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG23">
         <v>16.5</v>
@@ -5517,10 +5340,10 @@
         <v>38</v>
       </c>
       <c r="AQ23">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AR23">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AS23">
         <v>30</v>
@@ -5603,13 +5426,13 @@
         <v>153</v>
       </c>
       <c r="F24">
+        <v>1.82</v>
+      </c>
+      <c r="G24">
         <v>1.83</v>
       </c>
-      <c r="G24">
-        <v>1.85</v>
-      </c>
       <c r="H24">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>5.2</v>
@@ -5618,10 +5441,10 @@
         <v>3.8</v>
       </c>
       <c r="K24">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L24">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="M24">
         <v>1.94</v>
@@ -5630,31 +5453,31 @@
         <v>2.06</v>
       </c>
       <c r="O24">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="P24">
         <v>1.94</v>
       </c>
       <c r="Q24">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <v>2.08</v>
       </c>
       <c r="T24">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U24">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V24">
         <v>15</v>
       </c>
       <c r="W24">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="X24">
         <v>30</v>
@@ -5669,7 +5492,7 @@
         <v>150</v>
       </c>
       <c r="AB24">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC24">
         <v>8.6</v>
@@ -5684,7 +5507,7 @@
         <v>17.5</v>
       </c>
       <c r="AG24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH24">
         <v>50</v>
@@ -5699,7 +5522,7 @@
         <v>10.5</v>
       </c>
       <c r="AL24">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AM24">
         <v>10.5</v>
@@ -5708,28 +5531,28 @@
         <v>18.5</v>
       </c>
       <c r="AO24">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AP24">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AQ24">
         <v>90</v>
       </c>
       <c r="AR24">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AS24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT24">
         <v>17.5</v>
       </c>
       <c r="AU24">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AV24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AW24">
         <v>48</v>
@@ -5800,19 +5623,19 @@
         <v>154</v>
       </c>
       <c r="F25">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="G25">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H25">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="I25">
         <v>870</v>
       </c>
       <c r="J25">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="K25">
         <v>950</v>
@@ -5842,25 +5665,25 @@
         <v>1000</v>
       </c>
       <c r="T25">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U25">
         <v>1000</v>
       </c>
       <c r="V25">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="W25">
         <v>1000</v>
       </c>
       <c r="X25">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="Y25">
         <v>1000</v>
       </c>
       <c r="Z25">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AA25">
         <v>1000</v>
@@ -5872,43 +5695,43 @@
         <v>1000</v>
       </c>
       <c r="AD25">
-        <v>1.03</v>
+        <v>2.76</v>
       </c>
       <c r="AE25">
         <v>1000</v>
       </c>
       <c r="AF25">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AG25">
         <v>1000</v>
       </c>
       <c r="AH25">
-        <v>4.4</v>
+        <v>7.6</v>
       </c>
       <c r="AI25">
         <v>1000</v>
       </c>
       <c r="AJ25">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AK25">
         <v>1000</v>
       </c>
       <c r="AL25">
-        <v>1.03</v>
+        <v>3.3</v>
       </c>
       <c r="AM25">
         <v>1000</v>
       </c>
       <c r="AN25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO25">
         <v>1000</v>
       </c>
       <c r="AP25">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AQ25">
         <v>1000</v>
@@ -5920,19 +5743,19 @@
         <v>1000</v>
       </c>
       <c r="AT25">
-        <v>1.03</v>
+        <v>5.1</v>
       </c>
       <c r="AU25">
         <v>1000</v>
       </c>
       <c r="AV25">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="AW25">
         <v>1000</v>
       </c>
       <c r="AX25">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AY25">
         <v>1000</v>
@@ -5955,8 +5778,8 @@
       <c r="BE25">
         <v>1000</v>
       </c>
-      <c r="BF25" t="s">
-        <v>170</v>
+      <c r="BF25">
+        <v>33174269</v>
       </c>
       <c r="BG25">
         <v>5178272</v>
@@ -5967,17 +5790,17 @@
       <c r="BI25">
         <v>58805</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>183</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>196</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>206</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>216</v>
+      <c r="BJ25">
+        <v>1.227300482</v>
+      </c>
+      <c r="BK25">
+        <v>1.227300492</v>
+      </c>
+      <c r="BL25">
+        <v>1.227300481</v>
+      </c>
+      <c r="BM25">
+        <v>1.227300491</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -5997,19 +5820,19 @@
         <v>155</v>
       </c>
       <c r="F26">
+        <v>1.04</v>
+      </c>
+      <c r="G26">
+        <v>65</v>
+      </c>
+      <c r="H26">
         <v>1.06</v>
-      </c>
-      <c r="G26">
-        <v>470</v>
-      </c>
-      <c r="H26">
-        <v>1.04</v>
       </c>
       <c r="I26">
         <v>870</v>
       </c>
       <c r="J26">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="K26">
         <v>950</v>
@@ -6039,97 +5862,97 @@
         <v>1000</v>
       </c>
       <c r="T26">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="U26">
         <v>1000</v>
       </c>
       <c r="V26">
-        <v>2.9</v>
+        <v>1.01</v>
       </c>
       <c r="W26">
         <v>1000</v>
       </c>
       <c r="X26">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="Y26">
         <v>1000</v>
       </c>
       <c r="Z26">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="AA26">
         <v>1000</v>
       </c>
       <c r="AB26">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AC26">
         <v>1000</v>
       </c>
       <c r="AD26">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AE26">
         <v>1000</v>
       </c>
       <c r="AF26">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="AG26">
         <v>1000</v>
       </c>
       <c r="AH26">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="AI26">
         <v>1000</v>
       </c>
       <c r="AJ26">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AK26">
         <v>1000</v>
       </c>
       <c r="AL26">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AM26">
         <v>1000</v>
       </c>
       <c r="AN26">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AO26">
         <v>1000</v>
       </c>
       <c r="AP26">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AQ26">
         <v>1000</v>
       </c>
       <c r="AR26">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS26">
         <v>1000</v>
       </c>
       <c r="AT26">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU26">
         <v>1000</v>
       </c>
       <c r="AV26">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AW26">
         <v>1000</v>
       </c>
       <c r="AX26">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY26">
         <v>1000</v>
@@ -6152,8 +5975,8 @@
       <c r="BE26">
         <v>1000</v>
       </c>
-      <c r="BF26" t="s">
-        <v>171</v>
+      <c r="BF26">
+        <v>33174271</v>
       </c>
       <c r="BG26">
         <v>5287007</v>
@@ -6164,17 +5987,17 @@
       <c r="BI26">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>184</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>197</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>207</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>217</v>
+      <c r="BJ26">
+        <v>1.227300374</v>
+      </c>
+      <c r="BK26">
+        <v>1.227300384</v>
+      </c>
+      <c r="BL26">
+        <v>1.227300373</v>
+      </c>
+      <c r="BM26">
+        <v>1.227300383</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6194,13 +6017,13 @@
         <v>156</v>
       </c>
       <c r="F27">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="G27">
         <v>2.3</v>
       </c>
       <c r="H27">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I27">
         <v>6.8</v>
@@ -6209,7 +6032,7 @@
         <v>3.2</v>
       </c>
       <c r="K27">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L27">
         <v>1.34</v>
@@ -6397,28 +6220,28 @@
         <v>1.68</v>
       </c>
       <c r="H28">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I28">
         <v>1000</v>
       </c>
       <c r="J28">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K28">
-        <v>330</v>
+        <v>11.5</v>
       </c>
       <c r="L28">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="M28">
-        <v>3.4</v>
+        <v>980</v>
       </c>
       <c r="N28">
-        <v>1.42</v>
+        <v>1.03</v>
       </c>
       <c r="O28">
-        <v>2.98</v>
+        <v>4.6</v>
       </c>
       <c r="P28">
         <v>1.15</v>
@@ -6439,91 +6262,91 @@
         <v>980</v>
       </c>
       <c r="V28">
-        <v>2.96</v>
+        <v>1.03</v>
       </c>
       <c r="W28">
         <v>980</v>
       </c>
       <c r="X28">
-        <v>2.58</v>
+        <v>1.03</v>
       </c>
       <c r="Y28">
         <v>1000</v>
       </c>
       <c r="Z28">
-        <v>3.35</v>
+        <v>1.03</v>
       </c>
       <c r="AA28">
         <v>1000</v>
       </c>
       <c r="AB28">
-        <v>2.92</v>
+        <v>1.03</v>
       </c>
       <c r="AC28">
         <v>980</v>
       </c>
       <c r="AD28">
-        <v>3.8</v>
+        <v>1.03</v>
       </c>
       <c r="AE28">
         <v>980</v>
       </c>
       <c r="AF28">
-        <v>4.8</v>
+        <v>1.03</v>
       </c>
       <c r="AG28">
         <v>980</v>
       </c>
       <c r="AH28">
-        <v>6.8</v>
+        <v>1.03</v>
       </c>
       <c r="AI28">
         <v>1000</v>
       </c>
       <c r="AJ28">
-        <v>3.6</v>
+        <v>1.03</v>
       </c>
       <c r="AK28">
         <v>1000</v>
       </c>
       <c r="AL28">
-        <v>4.3</v>
+        <v>1.03</v>
       </c>
       <c r="AM28">
         <v>980</v>
       </c>
       <c r="AN28">
-        <v>8.6</v>
+        <v>1.03</v>
       </c>
       <c r="AO28">
         <v>980</v>
       </c>
       <c r="AP28">
-        <v>7.8</v>
+        <v>1.03</v>
       </c>
       <c r="AQ28">
         <v>1000</v>
       </c>
       <c r="AR28">
-        <v>3.4</v>
+        <v>1.03</v>
       </c>
       <c r="AS28">
         <v>1000</v>
       </c>
       <c r="AT28">
-        <v>3.95</v>
+        <v>1.03</v>
       </c>
       <c r="AU28">
         <v>1000</v>
       </c>
       <c r="AV28">
-        <v>6.4</v>
+        <v>1.03</v>
       </c>
       <c r="AW28">
         <v>1000</v>
       </c>
       <c r="AX28">
-        <v>18</v>
+        <v>1.03</v>
       </c>
       <c r="AY28">
         <v>1000</v>
@@ -6588,34 +6411,34 @@
         <v>158</v>
       </c>
       <c r="F29">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G29">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="H29">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I29">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="J29">
         <v>3.1</v>
       </c>
       <c r="K29">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="L29">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>55</v>
       </c>
       <c r="N29">
-        <v>1.45</v>
+        <v>1.03</v>
       </c>
       <c r="O29">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="P29">
         <v>1.15</v>
@@ -6636,19 +6459,19 @@
         <v>980</v>
       </c>
       <c r="V29">
-        <v>2.44</v>
+        <v>2.74</v>
       </c>
       <c r="W29">
         <v>980</v>
       </c>
       <c r="X29">
-        <v>2.34</v>
+        <v>2.82</v>
       </c>
       <c r="Y29">
         <v>1000</v>
       </c>
       <c r="Z29">
-        <v>3.9</v>
+        <v>2.92</v>
       </c>
       <c r="AA29">
         <v>1000</v>
@@ -6660,25 +6483,25 @@
         <v>980</v>
       </c>
       <c r="AD29">
-        <v>7.2</v>
+        <v>2.84</v>
       </c>
       <c r="AE29">
         <v>980</v>
       </c>
       <c r="AF29">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="AG29">
         <v>980</v>
       </c>
       <c r="AH29">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="AI29">
         <v>1000</v>
       </c>
       <c r="AJ29">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK29">
         <v>1000</v>
@@ -6690,37 +6513,37 @@
         <v>980</v>
       </c>
       <c r="AN29">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="AO29">
         <v>980</v>
       </c>
       <c r="AP29">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AQ29">
         <v>1000</v>
       </c>
       <c r="AR29">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AS29">
         <v>1000</v>
       </c>
       <c r="AT29">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="AU29">
         <v>1000</v>
       </c>
       <c r="AV29">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AW29">
         <v>1000</v>
       </c>
       <c r="AX29">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AY29">
         <v>1000</v>
@@ -6791,7 +6614,7 @@
         <v>1.4</v>
       </c>
       <c r="H30">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="I30">
         <v>1000</v>
@@ -6940,8 +6763,8 @@
       <c r="BE30">
         <v>1000</v>
       </c>
-      <c r="BF30" t="s">
-        <v>172</v>
+      <c r="BF30">
+        <v>33167293</v>
       </c>
       <c r="BG30">
         <v>328191</v>
@@ -6952,17 +6775,17 @@
       <c r="BI30">
         <v>58805</v>
       </c>
-      <c r="BJ30" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>208</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>218</v>
+      <c r="BJ30">
+        <v>1.227159645</v>
+      </c>
+      <c r="BK30">
+        <v>1.227159655</v>
+      </c>
+      <c r="BL30">
+        <v>1.227159644</v>
+      </c>
+      <c r="BM30">
+        <v>1.227159654</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -6982,19 +6805,19 @@
         <v>160</v>
       </c>
       <c r="F31">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="G31">
-        <v>6.8</v>
+        <v>2.74</v>
       </c>
       <c r="H31">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="I31">
         <v>870</v>
       </c>
       <c r="J31">
-        <v>1.32</v>
+        <v>1.69</v>
       </c>
       <c r="K31">
         <v>950</v>
@@ -7024,73 +6847,73 @@
         <v>1000</v>
       </c>
       <c r="T31">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="U31">
         <v>1000</v>
       </c>
       <c r="V31">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="W31">
         <v>1000</v>
       </c>
       <c r="X31">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="Y31">
         <v>1000</v>
       </c>
       <c r="Z31">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="AA31">
         <v>1000</v>
       </c>
       <c r="AB31">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AC31">
         <v>1000</v>
       </c>
       <c r="AD31">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AE31">
         <v>1000</v>
       </c>
       <c r="AF31">
+        <v>1.01</v>
+      </c>
+      <c r="AG31">
+        <v>1000</v>
+      </c>
+      <c r="AH31">
+        <v>1.01</v>
+      </c>
+      <c r="AI31">
+        <v>1000</v>
+      </c>
+      <c r="AJ31">
         <v>5.9</v>
       </c>
-      <c r="AG31">
-        <v>1000</v>
-      </c>
-      <c r="AH31">
-        <v>6.8</v>
-      </c>
-      <c r="AI31">
-        <v>1000</v>
-      </c>
-      <c r="AJ31">
-        <v>6</v>
-      </c>
       <c r="AK31">
         <v>1000</v>
       </c>
       <c r="AL31">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AM31">
         <v>1000</v>
       </c>
       <c r="AN31">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AO31">
         <v>1000</v>
       </c>
       <c r="AP31">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AQ31">
         <v>1000</v>
@@ -7102,19 +6925,19 @@
         <v>1000</v>
       </c>
       <c r="AT31">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU31">
         <v>1000</v>
       </c>
       <c r="AV31">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AW31">
         <v>1000</v>
       </c>
       <c r="AX31">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AY31">
         <v>1000</v>
@@ -7137,8 +6960,8 @@
       <c r="BE31">
         <v>1000</v>
       </c>
-      <c r="BF31" t="s">
-        <v>173</v>
+      <c r="BF31">
+        <v>33174324</v>
       </c>
       <c r="BG31">
         <v>198137</v>
@@ -7149,17 +6972,17 @@
       <c r="BI31">
         <v>58805</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>209</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>219</v>
+      <c r="BJ31">
+        <v>1.227303843</v>
+      </c>
+      <c r="BK31">
+        <v>1.227303853</v>
+      </c>
+      <c r="BL31">
+        <v>1.227303842</v>
+      </c>
+      <c r="BM31">
+        <v>1.227303852</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7179,19 +7002,19 @@
         <v>161</v>
       </c>
       <c r="F32">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="G32">
         <v>480</v>
       </c>
       <c r="H32">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I32">
         <v>870</v>
       </c>
       <c r="J32">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="K32">
         <v>950</v>
@@ -7221,31 +7044,31 @@
         <v>1000</v>
       </c>
       <c r="T32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U32">
         <v>1000</v>
       </c>
       <c r="V32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W32">
         <v>1000</v>
       </c>
       <c r="X32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="Y32">
         <v>1000</v>
       </c>
       <c r="Z32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AA32">
         <v>1000</v>
       </c>
       <c r="AB32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AC32">
         <v>1000</v>
@@ -7257,61 +7080,61 @@
         <v>1000</v>
       </c>
       <c r="AF32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG32">
         <v>1000</v>
       </c>
       <c r="AH32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AI32">
         <v>1000</v>
       </c>
       <c r="AJ32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AK32">
         <v>1000</v>
       </c>
       <c r="AL32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AM32">
         <v>1000</v>
       </c>
       <c r="AN32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AO32">
         <v>1000</v>
       </c>
       <c r="AP32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ32">
         <v>1000</v>
       </c>
       <c r="AR32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS32">
         <v>1000</v>
       </c>
       <c r="AT32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU32">
         <v>1000</v>
       </c>
       <c r="AV32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW32">
         <v>1000</v>
       </c>
       <c r="AX32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY32">
         <v>1000</v>
@@ -7334,8 +7157,8 @@
       <c r="BE32">
         <v>1000</v>
       </c>
-      <c r="BF32" t="s">
-        <v>174</v>
+      <c r="BF32">
+        <v>33174292</v>
       </c>
       <c r="BG32">
         <v>5271439</v>
@@ -7346,17 +7169,17 @@
       <c r="BI32">
         <v>58805</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>187</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>200</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>210</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>220</v>
+      <c r="BJ32">
+        <v>1.22730059</v>
+      </c>
+      <c r="BK32">
+        <v>1.2273006</v>
+      </c>
+      <c r="BL32">
+        <v>1.227300589</v>
+      </c>
+      <c r="BM32">
+        <v>1.227300599</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7379,13 +7202,13 @@
         <v>1.18</v>
       </c>
       <c r="G33">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H33">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="I33">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="J33">
         <v>6.8</v>
@@ -7409,10 +7232,10 @@
         <v>2.62</v>
       </c>
       <c r="Q33">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R33">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S33">
         <v>1.62</v>
@@ -7424,19 +7247,19 @@
         <v>980</v>
       </c>
       <c r="V33">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="W33">
         <v>980</v>
       </c>
       <c r="X33">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Y33">
         <v>1000</v>
       </c>
       <c r="Z33">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AA33">
         <v>1000</v>
@@ -7454,19 +7277,19 @@
         <v>980</v>
       </c>
       <c r="AF33">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AG33">
         <v>980</v>
       </c>
       <c r="AH33">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AI33">
         <v>1000</v>
       </c>
       <c r="AJ33">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AK33">
         <v>7.8</v>
@@ -7475,16 +7298,16 @@
         <v>10</v>
       </c>
       <c r="AM33">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AN33">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AO33">
         <v>980</v>
       </c>
       <c r="AP33">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AQ33">
         <v>1000</v>
@@ -7502,37 +7325,37 @@
         <v>980</v>
       </c>
       <c r="AV33">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AW33">
         <v>980</v>
       </c>
       <c r="AX33">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AY33">
         <v>1000</v>
       </c>
       <c r="AZ33">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="BA33">
         <v>5.3</v>
       </c>
       <c r="BB33">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="BC33">
         <v>1000</v>
       </c>
       <c r="BD33">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="BE33">
         <v>1000</v>
       </c>
-      <c r="BF33" t="s">
-        <v>175</v>
+      <c r="BF33">
+        <v>33167007</v>
       </c>
       <c r="BG33">
         <v>198126</v>
@@ -7543,17 +7366,17 @@
       <c r="BI33">
         <v>58805</v>
       </c>
-      <c r="BJ33" t="s">
-        <v>188</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>201</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>211</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>221</v>
+      <c r="BJ33">
+        <v>1.227154708</v>
+      </c>
+      <c r="BK33">
+        <v>1.227154718</v>
+      </c>
+      <c r="BL33">
+        <v>1.227154707</v>
+      </c>
+      <c r="BM33">
+        <v>1.227154717</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -7576,10 +7399,10 @@
         <v>1.09</v>
       </c>
       <c r="G34">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="H34">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="I34">
         <v>990</v>
@@ -7588,7 +7411,7 @@
         <v>10.5</v>
       </c>
       <c r="K34">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="L34">
         <v>2.46</v>
@@ -7711,7 +7534,7 @@
         <v>1000</v>
       </c>
       <c r="AZ34">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="BA34">
         <v>1000</v>
@@ -7728,8 +7551,8 @@
       <c r="BE34">
         <v>1000</v>
       </c>
-      <c r="BF34" t="s">
-        <v>176</v>
+      <c r="BF34">
+        <v>33167027</v>
       </c>
       <c r="BG34">
         <v>198138</v>
@@ -7740,17 +7563,17 @@
       <c r="BI34">
         <v>58805</v>
       </c>
-      <c r="BJ34" t="s">
-        <v>189</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>202</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>222</v>
+      <c r="BJ34">
+        <v>1.22715352</v>
+      </c>
+      <c r="BK34">
+        <v>1.22715353</v>
+      </c>
+      <c r="BL34">
+        <v>1.227153519</v>
+      </c>
+      <c r="BM34">
+        <v>1.227153529</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -7770,34 +7593,34 @@
         <v>164</v>
       </c>
       <c r="F35">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="G35">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H35">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="I35">
         <v>870</v>
       </c>
       <c r="J35">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="K35">
         <v>950</v>
       </c>
       <c r="L35">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="M35">
-        <v>2.76</v>
+        <v>110</v>
       </c>
       <c r="N35">
-        <v>1.56</v>
+        <v>1.03</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P35">
         <v>1.01</v>
@@ -7812,25 +7635,25 @@
         <v>1000</v>
       </c>
       <c r="T35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U35">
         <v>1000</v>
       </c>
       <c r="V35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W35">
         <v>1000</v>
       </c>
       <c r="X35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="Y35">
         <v>1000</v>
       </c>
       <c r="Z35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AA35">
         <v>1000</v>
@@ -7842,67 +7665,67 @@
         <v>1000</v>
       </c>
       <c r="AD35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AE35">
         <v>1000</v>
       </c>
       <c r="AF35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG35">
         <v>1000</v>
       </c>
       <c r="AH35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AI35">
         <v>1000</v>
       </c>
       <c r="AJ35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AK35">
         <v>1000</v>
       </c>
       <c r="AL35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AM35">
         <v>1000</v>
       </c>
       <c r="AN35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AO35">
         <v>1000</v>
       </c>
       <c r="AP35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ35">
         <v>1000</v>
       </c>
       <c r="AR35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS35">
         <v>1000</v>
       </c>
       <c r="AT35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU35">
         <v>1000</v>
       </c>
       <c r="AV35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW35">
         <v>1000</v>
       </c>
       <c r="AX35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY35">
         <v>1000</v>
@@ -7925,8 +7748,8 @@
       <c r="BE35">
         <v>1000</v>
       </c>
-      <c r="BF35" t="s">
-        <v>177</v>
+      <c r="BF35">
+        <v>33174686</v>
       </c>
       <c r="BG35">
         <v>198558</v>
@@ -7937,17 +7760,17 @@
       <c r="BI35">
         <v>58805</v>
       </c>
-      <c r="BJ35" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>203</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>213</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>223</v>
+      <c r="BJ35">
+        <v>1.227305666</v>
+      </c>
+      <c r="BK35">
+        <v>1.227305676</v>
+      </c>
+      <c r="BL35">
+        <v>1.227305665</v>
+      </c>
+      <c r="BM35">
+        <v>1.227305675</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -7973,16 +7796,16 @@
         <v>480</v>
       </c>
       <c r="H36">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I36">
         <v>1000</v>
       </c>
       <c r="J36">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="K36">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="L36">
         <v>1.34</v>
@@ -8122,8 +7945,8 @@
       <c r="BE36">
         <v>1000</v>
       </c>
-      <c r="BF36" t="s">
-        <v>178</v>
+      <c r="BF36">
+        <v>33167004</v>
       </c>
       <c r="BG36">
         <v>13749040</v>
@@ -8134,17 +7957,17 @@
       <c r="BI36">
         <v>58805</v>
       </c>
-      <c r="BJ36" t="s">
-        <v>191</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>204</v>
-      </c>
-      <c r="BL36" t="s">
-        <v>214</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>224</v>
+      <c r="BJ36">
+        <v>1.227154924</v>
+      </c>
+      <c r="BK36">
+        <v>1.227154934</v>
+      </c>
+      <c r="BL36">
+        <v>1.227154923</v>
+      </c>
+      <c r="BM36">
+        <v>1.227154933</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8164,34 +7987,34 @@
         <v>166</v>
       </c>
       <c r="F37">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="G37">
-        <v>2.56</v>
+        <v>3.05</v>
       </c>
       <c r="H37">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="I37">
         <v>870</v>
       </c>
       <c r="J37">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="K37">
         <v>950</v>
       </c>
       <c r="L37">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>2.8</v>
       </c>
       <c r="N37">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="O37">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
         <v>1.01</v>
@@ -8206,25 +8029,25 @@
         <v>1000</v>
       </c>
       <c r="T37">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="U37">
         <v>1000</v>
       </c>
       <c r="V37">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W37">
         <v>1000</v>
       </c>
       <c r="X37">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="Y37">
         <v>1000</v>
       </c>
       <c r="Z37">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="AA37">
         <v>1000</v>
@@ -8236,19 +8059,19 @@
         <v>1000</v>
       </c>
       <c r="AD37">
-        <v>1.03</v>
+        <v>2.84</v>
       </c>
       <c r="AE37">
         <v>1000</v>
       </c>
       <c r="AF37">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG37">
         <v>1000</v>
       </c>
       <c r="AH37">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AI37">
         <v>1000</v>
@@ -8260,43 +8083,43 @@
         <v>1000</v>
       </c>
       <c r="AL37">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AM37">
         <v>1000</v>
       </c>
       <c r="AN37">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="AO37">
         <v>1000</v>
       </c>
       <c r="AP37">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="AQ37">
         <v>1000</v>
       </c>
       <c r="AR37">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS37">
         <v>1000</v>
       </c>
       <c r="AT37">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU37">
         <v>1000</v>
       </c>
       <c r="AV37">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AW37">
         <v>1000</v>
       </c>
       <c r="AX37">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AY37">
         <v>1000</v>
@@ -8319,8 +8142,8 @@
       <c r="BE37">
         <v>1000</v>
       </c>
-      <c r="BF37" t="s">
-        <v>179</v>
+      <c r="BF37">
+        <v>33174318</v>
       </c>
       <c r="BG37">
         <v>1067444</v>
@@ -8331,17 +8154,17 @@
       <c r="BI37">
         <v>58805</v>
       </c>
-      <c r="BJ37" t="s">
-        <v>192</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>205</v>
-      </c>
-      <c r="BL37" t="s">
-        <v>215</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>225</v>
+      <c r="BJ37">
+        <v>1.227300698</v>
+      </c>
+      <c r="BK37">
+        <v>1.227300708</v>
+      </c>
+      <c r="BL37">
+        <v>1.227300697</v>
+      </c>
+      <c r="BM37">
+        <v>1.227300707</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-10.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-10.xlsx
@@ -4277,76 +4277,76 @@
         <v>1.46</v>
       </c>
       <c r="G18">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H18">
         <v>7.4</v>
       </c>
       <c r="I18">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K18">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L18">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="M18">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="N18">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="O18">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="P18">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q18">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="R18">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="S18">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T18">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="V18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W18">
         <v>34</v>
       </c>
       <c r="X18">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Y18">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="Z18">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AA18">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AB18">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC18">
+        <v>11.5</v>
+      </c>
+      <c r="AD18">
         <v>11</v>
-      </c>
-      <c r="AD18">
-        <v>10.5</v>
       </c>
       <c r="AE18">
         <v>12</v>
@@ -4355,16 +4355,16 @@
         <v>25</v>
       </c>
       <c r="AG18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH18">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AI18">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AJ18">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK18">
         <v>10.5</v>
@@ -4376,22 +4376,22 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AN18">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO18">
         <v>22</v>
       </c>
       <c r="AP18">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AQ18">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR18">
         <v>12</v>
       </c>
       <c r="AS18">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AT18">
         <v>12.5</v>
@@ -4400,34 +4400,34 @@
         <v>14</v>
       </c>
       <c r="AV18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW18">
         <v>29</v>
       </c>
       <c r="AX18">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AY18">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AZ18">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="BA18">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="BB18">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="BC18">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="BD18">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="BE18">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF18">
         <v>33168195</v>
@@ -4471,76 +4471,76 @@
         <v>154</v>
       </c>
       <c r="F19">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="G19">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I19">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="J19">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K19">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L19">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="M19">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="N19">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="O19">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="P19">
+        <v>1.91</v>
+      </c>
+      <c r="Q19">
         <v>1.94</v>
       </c>
-      <c r="Q19">
-        <v>1.97</v>
-      </c>
       <c r="R19">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="S19">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T19">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="U19">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="V19">
         <v>10</v>
       </c>
       <c r="W19">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X19">
+        <v>16</v>
+      </c>
+      <c r="Y19">
         <v>17.5</v>
       </c>
-      <c r="Y19">
-        <v>19</v>
-      </c>
       <c r="Z19">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA19">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB19">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC19">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD19">
         <v>7</v>
@@ -4549,22 +4549,22 @@
         <v>7.4</v>
       </c>
       <c r="AF19">
+        <v>12</v>
+      </c>
+      <c r="AG19">
         <v>12.5</v>
       </c>
-      <c r="AG19">
-        <v>13.5</v>
-      </c>
       <c r="AH19">
+        <v>30</v>
+      </c>
+      <c r="AI19">
         <v>34</v>
       </c>
-      <c r="AI19">
-        <v>38</v>
-      </c>
       <c r="AJ19">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AK19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL19">
         <v>11.5</v>
@@ -4573,25 +4573,25 @@
         <v>12.5</v>
       </c>
       <c r="AN19">
+        <v>18</v>
+      </c>
+      <c r="AO19">
         <v>18.5</v>
       </c>
-      <c r="AO19">
-        <v>19</v>
-      </c>
       <c r="AP19">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AQ19">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR19">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AS19">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AT19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU19">
         <v>32</v>
@@ -4600,13 +4600,13 @@
         <v>44</v>
       </c>
       <c r="AW19">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AX19">
         <v>100</v>
       </c>
       <c r="AY19">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AZ19">
         <v>28</v>
@@ -4615,13 +4615,13 @@
         <v>30</v>
       </c>
       <c r="BB19">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BC19">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="BD19">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="BE19">
         <v>1000</v>
@@ -4668,10 +4668,10 @@
         <v>155</v>
       </c>
       <c r="F20">
+        <v>4.3</v>
+      </c>
+      <c r="G20">
         <v>4.4</v>
-      </c>
-      <c r="G20">
-        <v>4.5</v>
       </c>
       <c r="H20">
         <v>1.95</v>
@@ -4680,145 +4680,145 @@
         <v>1.98</v>
       </c>
       <c r="J20">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K20">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L20">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="M20">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="N20">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="O20">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="P20">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q20">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S20">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T20">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="U20">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="V20">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W20">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="X20">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y20">
         <v>11.5</v>
       </c>
       <c r="Z20">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AA20">
         <v>23</v>
       </c>
       <c r="AB20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC20">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD20">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE20">
         <v>8.199999999999999</v>
       </c>
       <c r="AF20">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG20">
         <v>10.5</v>
       </c>
       <c r="AH20">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ20">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AK20">
         <v>32</v>
       </c>
       <c r="AL20">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM20">
+        <v>17.5</v>
+      </c>
+      <c r="AN20">
+        <v>18</v>
+      </c>
+      <c r="AO20">
         <v>19.5</v>
       </c>
-      <c r="AN20">
-        <v>18.5</v>
-      </c>
-      <c r="AO20">
-        <v>20</v>
-      </c>
       <c r="AP20">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AQ20">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AR20">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AS20">
+        <v>980</v>
+      </c>
+      <c r="AT20">
+        <v>40</v>
+      </c>
+      <c r="AU20">
+        <v>55</v>
+      </c>
+      <c r="AV20">
+        <v>48</v>
+      </c>
+      <c r="AW20">
+        <v>65</v>
+      </c>
+      <c r="AX20">
+        <v>26</v>
+      </c>
+      <c r="AY20">
         <v>110</v>
       </c>
-      <c r="AT20">
-        <v>15.5</v>
-      </c>
-      <c r="AU20">
-        <v>100</v>
-      </c>
-      <c r="AV20">
-        <v>34</v>
-      </c>
-      <c r="AW20">
-        <v>980</v>
-      </c>
-      <c r="AX20">
-        <v>17.5</v>
-      </c>
-      <c r="AY20">
-        <v>980</v>
-      </c>
       <c r="AZ20">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="BA20">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="BB20">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BC20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD20">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="BE20">
         <v>1000</v>
@@ -4871,10 +4871,10 @@
         <v>1.51</v>
       </c>
       <c r="H21">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I21">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J21">
         <v>4.9</v>
@@ -4883,25 +4883,25 @@
         <v>5</v>
       </c>
       <c r="L21">
+        <v>2.42</v>
+      </c>
+      <c r="M21">
         <v>2.48</v>
       </c>
-      <c r="M21">
-        <v>2.58</v>
-      </c>
       <c r="N21">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="O21">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="P21">
         <v>1.82</v>
       </c>
       <c r="Q21">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R21">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="S21">
         <v>2.22</v>
@@ -4913,10 +4913,10 @@
         <v>22</v>
       </c>
       <c r="V21">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W21">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="X21">
         <v>50</v>
@@ -4925,37 +4925,37 @@
         <v>65</v>
       </c>
       <c r="Z21">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA21">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB21">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC21">
         <v>10</v>
       </c>
-      <c r="AC21">
-        <v>10.5</v>
-      </c>
       <c r="AD21">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE21">
         <v>11</v>
       </c>
       <c r="AF21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG21">
         <v>27</v>
       </c>
       <c r="AH21">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AI21">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ21">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK21">
         <v>9.6</v>
@@ -4967,16 +4967,16 @@
         <v>9.6</v>
       </c>
       <c r="AN21">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP21">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AQ21">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR21">
         <v>12.5</v>
@@ -4991,31 +4991,31 @@
         <v>14</v>
       </c>
       <c r="AV21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX21">
         <v>80</v>
       </c>
       <c r="AY21">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AZ21">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="BA21">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="BB21">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC21">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="BD21">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="BE21">
         <v>1000</v>
@@ -5062,16 +5062,16 @@
         <v>157</v>
       </c>
       <c r="F22">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G22">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>3.1</v>
-      </c>
-      <c r="I22">
-        <v>3.15</v>
       </c>
       <c r="J22">
         <v>3.65</v>
@@ -5080,19 +5080,19 @@
         <v>3.7</v>
       </c>
       <c r="L22">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="M22">
         <v>2.18</v>
       </c>
       <c r="N22">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O22">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="P22">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q22">
         <v>1.76</v>
@@ -5101,31 +5101,31 @@
         <v>2.32</v>
       </c>
       <c r="S22">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T22">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U22">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V22">
         <v>12.5</v>
       </c>
       <c r="W22">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X22">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z22">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA22">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB22">
         <v>11</v>
@@ -5146,16 +5146,16 @@
         <v>13</v>
       </c>
       <c r="AH22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ22">
         <v>15</v>
       </c>
       <c r="AK22">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL22">
         <v>10.5</v>
@@ -5167,13 +5167,13 @@
         <v>15</v>
       </c>
       <c r="AO22">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP22">
         <v>36</v>
       </c>
       <c r="AQ22">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AR22">
         <v>30</v>
@@ -5191,7 +5191,7 @@
         <v>32</v>
       </c>
       <c r="AW22">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX22">
         <v>65</v>
@@ -5200,16 +5200,16 @@
         <v>80</v>
       </c>
       <c r="AZ22">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="BA22">
         <v>18</v>
       </c>
       <c r="BB22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD22">
         <v>110</v>
@@ -5259,25 +5259,25 @@
         <v>158</v>
       </c>
       <c r="F23">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G23">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H23">
         <v>4.4</v>
       </c>
       <c r="I23">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J23">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K23">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L23">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M23">
         <v>1.85</v>
@@ -5286,28 +5286,28 @@
         <v>2.18</v>
       </c>
       <c r="O23">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="P23">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="Q23">
         <v>2.06</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="S23">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>11</v>
       </c>
       <c r="U23">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V23">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W23">
         <v>15</v>
@@ -5319,13 +5319,13 @@
         <v>32</v>
       </c>
       <c r="Z23">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AA23">
         <v>100</v>
       </c>
       <c r="AB23">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC23">
         <v>8.199999999999999</v>
@@ -5334,7 +5334,7 @@
         <v>7.4</v>
       </c>
       <c r="AE23">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AF23">
         <v>16.5</v>
@@ -5343,10 +5343,10 @@
         <v>17.5</v>
       </c>
       <c r="AH23">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AI23">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ23">
         <v>10</v>
@@ -5355,7 +5355,7 @@
         <v>11</v>
       </c>
       <c r="AL23">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM23">
         <v>10.5</v>
@@ -5379,7 +5379,7 @@
         <v>22</v>
       </c>
       <c r="AT23">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AU23">
         <v>22</v>
@@ -5391,25 +5391,25 @@
         <v>42</v>
       </c>
       <c r="AX23">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AY23">
         <v>110</v>
       </c>
       <c r="AZ23">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BA23">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="BB23">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BC23">
         <v>75</v>
       </c>
       <c r="BD23">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BE23">
         <v>1000</v>
@@ -5456,154 +5456,154 @@
         <v>159</v>
       </c>
       <c r="F24">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="G24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H24">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="I24">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="J24">
+        <v>6.4</v>
+      </c>
+      <c r="K24">
         <v>6.8</v>
       </c>
-      <c r="K24">
-        <v>7</v>
-      </c>
       <c r="L24">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="M24">
-        <v>2.98</v>
+        <v>2.68</v>
       </c>
       <c r="N24">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="O24">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="P24">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="Q24">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R24">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="S24">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="T24">
         <v>25</v>
       </c>
       <c r="U24">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V24">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="W24">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="X24">
+        <v>7</v>
+      </c>
+      <c r="Y24">
+        <v>7.6</v>
+      </c>
+      <c r="Z24">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA24">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB24">
+        <v>46</v>
+      </c>
+      <c r="AC24">
+        <v>55</v>
+      </c>
+      <c r="AD24">
+        <v>13</v>
+      </c>
+      <c r="AE24">
+        <v>14.5</v>
+      </c>
+      <c r="AF24">
+        <v>10</v>
+      </c>
+      <c r="AG24">
         <v>11</v>
       </c>
-      <c r="X24">
-        <v>7.8</v>
-      </c>
-      <c r="Y24">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z24">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA24">
-        <v>10.5</v>
-      </c>
-      <c r="AB24">
-        <v>40</v>
-      </c>
-      <c r="AC24">
-        <v>50</v>
-      </c>
-      <c r="AD24">
-        <v>13.5</v>
-      </c>
-      <c r="AE24">
-        <v>15.5</v>
-      </c>
-      <c r="AF24">
-        <v>9.6</v>
-      </c>
-      <c r="AG24">
-        <v>10.5</v>
-      </c>
       <c r="AH24">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI24">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ24">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AK24">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AL24">
+        <v>48</v>
+      </c>
+      <c r="AM24">
+        <v>65</v>
+      </c>
+      <c r="AN24">
+        <v>32</v>
+      </c>
+      <c r="AO24">
+        <v>36</v>
+      </c>
+      <c r="AP24">
+        <v>34</v>
+      </c>
+      <c r="AQ24">
         <v>38</v>
       </c>
-      <c r="AM24">
-        <v>46</v>
-      </c>
-      <c r="AN24">
+      <c r="AR24">
+        <v>23</v>
+      </c>
+      <c r="AS24">
+        <v>840</v>
+      </c>
+      <c r="AT24">
+        <v>22</v>
+      </c>
+      <c r="AU24">
+        <v>330</v>
+      </c>
+      <c r="AV24">
+        <v>21</v>
+      </c>
+      <c r="AW24">
+        <v>240</v>
+      </c>
+      <c r="AX24">
         <v>26</v>
       </c>
-      <c r="AO24">
-        <v>32</v>
-      </c>
-      <c r="AP24">
-        <v>28</v>
-      </c>
-      <c r="AQ24">
-        <v>34</v>
-      </c>
-      <c r="AR24">
-        <v>18</v>
-      </c>
-      <c r="AS24">
-        <v>980</v>
-      </c>
-      <c r="AT24">
-        <v>17</v>
-      </c>
-      <c r="AU24">
-        <v>200</v>
-      </c>
-      <c r="AV24">
-        <v>16.5</v>
-      </c>
-      <c r="AW24">
-        <v>160</v>
-      </c>
-      <c r="AX24">
-        <v>28</v>
-      </c>
       <c r="AY24">
-        <v>980</v>
+        <v>250</v>
       </c>
       <c r="AZ24">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BA24">
-        <v>210</v>
+        <v>450</v>
       </c>
       <c r="BB24">
         <v>4</v>
       </c>
       <c r="BC24">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BD24">
         <v>310</v>
@@ -5653,100 +5653,100 @@
         <v>160</v>
       </c>
       <c r="F25">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="G25">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="I25">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="J25">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K25">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L25">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="M25">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="N25">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="O25">
+        <v>1.98</v>
+      </c>
+      <c r="P25">
+        <v>1.73</v>
+      </c>
+      <c r="Q25">
+        <v>1.79</v>
+      </c>
+      <c r="R25">
         <v>2.26</v>
       </c>
-      <c r="P25">
-        <v>1.87</v>
-      </c>
-      <c r="Q25">
-        <v>1.92</v>
-      </c>
-      <c r="R25">
-        <v>2.06</v>
-      </c>
       <c r="S25">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="T25">
+        <v>13</v>
+      </c>
+      <c r="U25">
+        <v>14</v>
+      </c>
+      <c r="V25">
+        <v>12</v>
+      </c>
+      <c r="W25">
+        <v>12.5</v>
+      </c>
+      <c r="X25">
+        <v>17</v>
+      </c>
+      <c r="Y25">
+        <v>18</v>
+      </c>
+      <c r="Z25">
+        <v>38</v>
+      </c>
+      <c r="AA25">
+        <v>42</v>
+      </c>
+      <c r="AB25">
         <v>11</v>
       </c>
-      <c r="U25">
+      <c r="AC25">
         <v>12</v>
       </c>
-      <c r="V25">
-        <v>10.5</v>
-      </c>
-      <c r="W25">
+      <c r="AD25">
+        <v>7.4</v>
+      </c>
+      <c r="AE25">
+        <v>7.6</v>
+      </c>
+      <c r="AF25">
         <v>11.5</v>
       </c>
-      <c r="X25">
-        <v>17.5</v>
-      </c>
-      <c r="Y25">
-        <v>19</v>
-      </c>
-      <c r="Z25">
-        <v>46</v>
-      </c>
-      <c r="AA25">
-        <v>50</v>
-      </c>
-      <c r="AB25">
-        <v>9.6</v>
-      </c>
-      <c r="AC25">
-        <v>10</v>
-      </c>
-      <c r="AD25">
-        <v>7.2</v>
-      </c>
-      <c r="AE25">
-        <v>7.4</v>
-      </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>12.5</v>
       </c>
-      <c r="AG25">
-        <v>13.5</v>
-      </c>
       <c r="AH25">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI25">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AJ25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL25">
         <v>11.5</v>
@@ -5755,58 +5755,58 @@
         <v>12</v>
       </c>
       <c r="AN25">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AO25">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP25">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AQ25">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR25">
         <v>36</v>
       </c>
       <c r="AS25">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AT25">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU25">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV25">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AW25">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AX25">
+        <v>70</v>
+      </c>
+      <c r="AY25">
         <v>85</v>
       </c>
-      <c r="AY25">
-        <v>95</v>
-      </c>
       <c r="AZ25">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA25">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB25">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="BC25">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="BD25">
         <v>300</v>
       </c>
       <c r="BE25">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="BF25">
         <v>33163627</v>
@@ -5850,157 +5850,157 @@
         <v>161</v>
       </c>
       <c r="F26">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G26">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>22</v>
+      </c>
+      <c r="J26">
+        <v>7.4</v>
+      </c>
+      <c r="K26">
+        <v>7.8</v>
+      </c>
+      <c r="L26">
+        <v>2.26</v>
+      </c>
+      <c r="M26">
+        <v>2.3</v>
+      </c>
+      <c r="N26">
+        <v>1.76</v>
+      </c>
+      <c r="O26">
+        <v>1.79</v>
+      </c>
+      <c r="P26">
+        <v>2.68</v>
+      </c>
+      <c r="Q26">
+        <v>2.8</v>
+      </c>
+      <c r="R26">
+        <v>1.56</v>
+      </c>
+      <c r="S26">
+        <v>1.6</v>
+      </c>
+      <c r="T26">
+        <v>21</v>
+      </c>
+      <c r="U26">
+        <v>22</v>
+      </c>
+      <c r="V26">
+        <v>44</v>
+      </c>
+      <c r="W26">
+        <v>50</v>
+      </c>
+      <c r="X26">
+        <v>48</v>
+      </c>
+      <c r="Y26">
+        <v>980</v>
+      </c>
+      <c r="Z26">
+        <v>140</v>
+      </c>
+      <c r="AA26">
+        <v>1000</v>
+      </c>
+      <c r="AB26">
+        <v>7</v>
+      </c>
+      <c r="AC26">
+        <v>7.6</v>
+      </c>
+      <c r="AD26">
+        <v>15.5</v>
+      </c>
+      <c r="AE26">
         <v>17.5</v>
       </c>
-      <c r="I26">
-        <v>19.5</v>
-      </c>
-      <c r="J26">
-        <v>6.8</v>
-      </c>
-      <c r="K26">
-        <v>7.2</v>
-      </c>
-      <c r="L26">
-        <v>2.38</v>
-      </c>
-      <c r="M26">
-        <v>2.48</v>
-      </c>
-      <c r="N26">
-        <v>1.67</v>
-      </c>
-      <c r="O26">
-        <v>1.73</v>
-      </c>
-      <c r="P26">
-        <v>2.42</v>
-      </c>
-      <c r="Q26">
-        <v>2.5</v>
-      </c>
-      <c r="R26">
-        <v>1.66</v>
-      </c>
-      <c r="S26">
-        <v>1.7</v>
-      </c>
-      <c r="T26">
-        <v>19</v>
-      </c>
-      <c r="U26">
-        <v>23</v>
-      </c>
-      <c r="V26">
-        <v>48</v>
-      </c>
-      <c r="W26">
-        <v>55</v>
-      </c>
-      <c r="X26">
-        <v>44</v>
-      </c>
-      <c r="Y26">
-        <v>180</v>
-      </c>
-      <c r="Z26">
-        <v>90</v>
-      </c>
-      <c r="AA26">
-        <v>980</v>
-      </c>
-      <c r="AB26">
-        <v>8</v>
-      </c>
-      <c r="AC26">
-        <v>8.6</v>
-      </c>
-      <c r="AD26">
-        <v>14.5</v>
-      </c>
-      <c r="AE26">
-        <v>16</v>
-      </c>
       <c r="AF26">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG26">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AH26">
         <v>110</v>
       </c>
       <c r="AI26">
-        <v>360</v>
+        <v>980</v>
       </c>
       <c r="AJ26">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AK26">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AL26">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AM26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN26">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AO26">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AP26">
         <v>65</v>
       </c>
       <c r="AQ26">
-        <v>290</v>
+        <v>980</v>
       </c>
       <c r="AR26">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AS26">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT26">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AU26">
         <v>15</v>
       </c>
       <c r="AV26">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AW26">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AX26">
         <v>110</v>
       </c>
       <c r="AY26">
-        <v>280</v>
+        <v>980</v>
       </c>
       <c r="AZ26">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BA26">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="BB26">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC26">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="BD26">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -6047,64 +6047,64 @@
         <v>162</v>
       </c>
       <c r="F27">
+        <v>2.04</v>
+      </c>
+      <c r="G27">
         <v>2.06</v>
       </c>
-      <c r="G27">
-        <v>2.08</v>
-      </c>
       <c r="H27">
+        <v>3.85</v>
+      </c>
+      <c r="I27">
         <v>3.9</v>
       </c>
-      <c r="I27">
+      <c r="J27">
+        <v>3.9</v>
+      </c>
+      <c r="K27">
         <v>3.95</v>
       </c>
-      <c r="J27">
-        <v>3.85</v>
-      </c>
-      <c r="K27">
-        <v>3.9</v>
-      </c>
       <c r="L27">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="M27">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="N27">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="O27">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="P27">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="Q27">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="R27">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="S27">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="T27">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U27">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="V27">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="W27">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="X27">
         <v>27</v>
       </c>
       <c r="Y27">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z27">
         <v>70</v>
@@ -6113,34 +6113,34 @@
         <v>75</v>
       </c>
       <c r="AB27">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC27">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD27">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AE27">
         <v>8.800000000000001</v>
       </c>
       <c r="AF27">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH27">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI27">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ27">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK27">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL27">
         <v>10</v>
@@ -6149,58 +6149,58 @@
         <v>10.5</v>
       </c>
       <c r="AN27">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP27">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AQ27">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AR27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS27">
         <v>24</v>
       </c>
       <c r="AT27">
+        <v>17.5</v>
+      </c>
+      <c r="AU27">
         <v>18</v>
       </c>
-      <c r="AU27">
-        <v>19</v>
-      </c>
       <c r="AV27">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AW27">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AX27">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AY27">
         <v>65</v>
       </c>
       <c r="AZ27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA27">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="BB27">
+        <v>30</v>
+      </c>
+      <c r="BC27">
         <v>32</v>
       </c>
-      <c r="BC27">
-        <v>36</v>
-      </c>
       <c r="BD27">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="BE27">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BF27">
         <v>33111560</v>
@@ -6244,58 +6244,58 @@
         <v>163</v>
       </c>
       <c r="F28">
+        <v>1.85</v>
+      </c>
+      <c r="G28">
+        <v>1.86</v>
+      </c>
+      <c r="H28">
+        <v>4.8</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>3.9</v>
+      </c>
+      <c r="K28">
+        <v>3.95</v>
+      </c>
+      <c r="L28">
+        <v>2.16</v>
+      </c>
+      <c r="M28">
+        <v>2.2</v>
+      </c>
+      <c r="N28">
         <v>1.84</v>
       </c>
-      <c r="G28">
-        <v>1.85</v>
-      </c>
-      <c r="H28">
-        <v>5.1</v>
-      </c>
-      <c r="I28">
-        <v>5.2</v>
-      </c>
-      <c r="J28">
-        <v>3.8</v>
-      </c>
-      <c r="K28">
-        <v>3.85</v>
-      </c>
-      <c r="L28">
-        <v>1.96</v>
-      </c>
-      <c r="M28">
-        <v>1.98</v>
-      </c>
-      <c r="N28">
-        <v>2.02</v>
-      </c>
       <c r="O28">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="P28">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="Q28">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R28">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="S28">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="T28">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="U28">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="V28">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="W28">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="X28">
         <v>36</v>
@@ -6304,100 +6304,100 @@
         <v>38</v>
       </c>
       <c r="Z28">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AA28">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB28">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AC28">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD28">
         <v>8.4</v>
       </c>
-      <c r="AD28">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AE28">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AF28">
+        <v>17.5</v>
+      </c>
+      <c r="AG28">
         <v>18</v>
       </c>
-      <c r="AG28">
-        <v>19</v>
-      </c>
       <c r="AH28">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI28">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ28">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK28">
         <v>11</v>
       </c>
       <c r="AL28">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM28">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AN28">
+        <v>16.5</v>
+      </c>
+      <c r="AO28">
+        <v>17.5</v>
+      </c>
+      <c r="AP28">
+        <v>50</v>
+      </c>
+      <c r="AQ28">
+        <v>55</v>
+      </c>
+      <c r="AR28">
         <v>18.5</v>
       </c>
-      <c r="AO28">
-        <v>19</v>
-      </c>
-      <c r="AP28">
-        <v>55</v>
-      </c>
-      <c r="AQ28">
-        <v>75</v>
-      </c>
-      <c r="AR28">
+      <c r="AS28">
+        <v>19.5</v>
+      </c>
+      <c r="AT28">
+        <v>17</v>
+      </c>
+      <c r="AU28">
         <v>18</v>
       </c>
-      <c r="AS28">
-        <v>19</v>
-      </c>
-      <c r="AT28">
-        <v>18</v>
-      </c>
-      <c r="AU28">
-        <v>18.5</v>
-      </c>
       <c r="AV28">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AW28">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AX28">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AY28">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AZ28">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="BA28">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="BB28">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="BC28">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD28">
         <v>270</v>
       </c>
       <c r="BE28">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="BF28">
         <v>33111556</v>
@@ -6441,49 +6441,49 @@
         <v>164</v>
       </c>
       <c r="F29">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G29">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="H29">
         <v>5.1</v>
       </c>
       <c r="I29">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J29">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K29">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="M29">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="N29">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="O29">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="P29">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q29">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R29">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="S29">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T29">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="U29">
         <v>12.5</v>
@@ -6492,13 +6492,13 @@
         <v>14.5</v>
       </c>
       <c r="W29">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X29">
-        <v>7.6</v>
+        <v>28</v>
       </c>
       <c r="Y29">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Z29">
         <v>8.800000000000001</v>
@@ -6510,10 +6510,10 @@
         <v>6.6</v>
       </c>
       <c r="AC29">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD29">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AE29">
         <v>8.800000000000001</v>
@@ -6525,34 +6525,34 @@
         <v>24</v>
       </c>
       <c r="AH29">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AI29">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AJ29">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK29">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AL29">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM29">
         <v>10.5</v>
       </c>
       <c r="AN29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP29">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AQ29">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AR29">
         <v>16</v>
@@ -6561,7 +6561,7 @@
         <v>21</v>
       </c>
       <c r="AT29">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AU29">
         <v>22</v>
@@ -6570,25 +6570,25 @@
         <v>7.8</v>
       </c>
       <c r="AW29">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AX29">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AY29">
         <v>980</v>
       </c>
       <c r="AZ29">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="BA29">
         <v>14.5</v>
       </c>
       <c r="BB29">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BC29">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="BD29">
         <v>9.199999999999999</v>
@@ -6638,91 +6638,91 @@
         <v>165</v>
       </c>
       <c r="F30">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="G30">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H30">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="I30">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="J30">
         <v>6.4</v>
       </c>
       <c r="K30">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L30">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="M30">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="N30">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="O30">
         <v>1.8</v>
       </c>
       <c r="P30">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="Q30">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="R30">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S30">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="T30">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="U30">
         <v>25</v>
       </c>
       <c r="V30">
-        <v>5.4</v>
+        <v>32</v>
       </c>
       <c r="W30">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X30">
-        <v>5.8</v>
+        <v>11</v>
       </c>
       <c r="Y30">
         <v>980</v>
       </c>
       <c r="Z30">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="AA30">
         <v>980</v>
       </c>
       <c r="AB30">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC30">
         <v>8.199999999999999</v>
       </c>
       <c r="AD30">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE30">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AF30">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="AG30">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AH30">
-        <v>5.9</v>
+        <v>11.5</v>
       </c>
       <c r="AI30">
         <v>980</v>
@@ -6731,55 +6731,55 @@
         <v>6.4</v>
       </c>
       <c r="AK30">
+        <v>7.2</v>
+      </c>
+      <c r="AL30">
+        <v>10</v>
+      </c>
+      <c r="AM30">
+        <v>11.5</v>
+      </c>
+      <c r="AN30">
+        <v>9.6</v>
+      </c>
+      <c r="AO30">
+        <v>48</v>
+      </c>
+      <c r="AP30">
+        <v>11.5</v>
+      </c>
+      <c r="AQ30">
+        <v>980</v>
+      </c>
+      <c r="AR30">
         <v>8.4</v>
       </c>
-      <c r="AL30">
-        <v>10.5</v>
-      </c>
-      <c r="AM30">
-        <v>14.5</v>
-      </c>
-      <c r="AN30">
-        <v>5.4</v>
-      </c>
-      <c r="AO30">
-        <v>55</v>
-      </c>
-      <c r="AP30">
-        <v>5.9</v>
-      </c>
-      <c r="AQ30">
-        <v>980</v>
-      </c>
-      <c r="AR30">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AS30">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AT30">
         <v>13.5</v>
       </c>
       <c r="AU30">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AV30">
-        <v>5.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW30">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AX30">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="AY30">
         <v>980</v>
       </c>
       <c r="AZ30">
-        <v>2.68</v>
+        <v>3.6</v>
       </c>
       <c r="BA30">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="BB30">
         <v>15</v>
@@ -6788,7 +6788,7 @@
         <v>980</v>
       </c>
       <c r="BD30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -6835,61 +6835,61 @@
         <v>166</v>
       </c>
       <c r="F31">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="G31">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I31">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J31">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="K31">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="L31">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="N31">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="O31">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P31">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="Q31">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R31">
         <v>1.59</v>
       </c>
       <c r="S31">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="T31">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="U31">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="V31">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W31">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="X31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y31">
         <v>980</v>
@@ -6901,19 +6901,19 @@
         <v>1000</v>
       </c>
       <c r="AB31">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD31">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AE31">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF31">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AG31">
         <v>980</v>
@@ -6922,70 +6922,70 @@
         <v>13</v>
       </c>
       <c r="AI31">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ31">
         <v>7.2</v>
       </c>
       <c r="AK31">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AL31">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM31">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AN31">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AO31">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AP31">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ31">
         <v>980</v>
       </c>
       <c r="AR31">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AS31">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AT31">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AU31">
+        <v>16.5</v>
+      </c>
+      <c r="AV31">
+        <v>29</v>
+      </c>
+      <c r="AW31">
+        <v>65</v>
+      </c>
+      <c r="AX31">
+        <v>26</v>
+      </c>
+      <c r="AY31">
+        <v>980</v>
+      </c>
+      <c r="AZ31">
+        <v>2.48</v>
+      </c>
+      <c r="BA31">
+        <v>2.62</v>
+      </c>
+      <c r="BB31">
+        <v>60</v>
+      </c>
+      <c r="BC31">
+        <v>1000</v>
+      </c>
+      <c r="BD31">
         <v>15</v>
-      </c>
-      <c r="AV31">
-        <v>10.5</v>
-      </c>
-      <c r="AW31">
-        <v>75</v>
-      </c>
-      <c r="AX31">
-        <v>13</v>
-      </c>
-      <c r="AY31">
-        <v>980</v>
-      </c>
-      <c r="AZ31">
-        <v>2.2</v>
-      </c>
-      <c r="BA31">
-        <v>2.66</v>
-      </c>
-      <c r="BB31">
-        <v>15</v>
-      </c>
-      <c r="BC31">
-        <v>1000</v>
-      </c>
-      <c r="BD31">
-        <v>13</v>
       </c>
       <c r="BE31">
         <v>1000</v>
@@ -7032,100 +7032,100 @@
         <v>167</v>
       </c>
       <c r="F32">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G32">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H32">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="I32">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J32">
+        <v>3.6</v>
+      </c>
+      <c r="K32">
         <v>3.7</v>
       </c>
-      <c r="K32">
-        <v>3.85</v>
-      </c>
       <c r="L32">
+        <v>1.72</v>
+      </c>
+      <c r="M32">
         <v>1.76</v>
       </c>
-      <c r="M32">
-        <v>1.82</v>
-      </c>
       <c r="N32">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="O32">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="P32">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q32">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="R32">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="T32">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="U32">
+        <v>11</v>
+      </c>
+      <c r="V32">
+        <v>14.5</v>
+      </c>
+      <c r="W32">
+        <v>16.5</v>
+      </c>
+      <c r="X32">
+        <v>38</v>
+      </c>
+      <c r="Y32">
+        <v>42</v>
+      </c>
+      <c r="Z32">
+        <v>4</v>
+      </c>
+      <c r="AA32">
+        <v>170</v>
+      </c>
+      <c r="AB32">
+        <v>6.6</v>
+      </c>
+      <c r="AC32">
         <v>10.5</v>
-      </c>
-      <c r="U32">
-        <v>12</v>
-      </c>
-      <c r="V32">
-        <v>15</v>
-      </c>
-      <c r="W32">
-        <v>17</v>
-      </c>
-      <c r="X32">
-        <v>30</v>
-      </c>
-      <c r="Y32">
-        <v>40</v>
-      </c>
-      <c r="Z32">
-        <v>16.5</v>
-      </c>
-      <c r="AA32">
-        <v>980</v>
-      </c>
-      <c r="AB32">
-        <v>7</v>
-      </c>
-      <c r="AC32">
-        <v>7.6</v>
       </c>
       <c r="AD32">
         <v>7.6</v>
       </c>
       <c r="AE32">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF32">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH32">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="AI32">
         <v>100</v>
       </c>
       <c r="AJ32">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AK32">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AL32">
         <v>9.6</v>
@@ -7134,13 +7134,13 @@
         <v>10.5</v>
       </c>
       <c r="AN32">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP32">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="AQ32">
         <v>980</v>
@@ -7152,37 +7152,37 @@
         <v>18.5</v>
       </c>
       <c r="AT32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV32">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AW32">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AX32">
-        <v>16.5</v>
+        <v>9.4</v>
       </c>
       <c r="AY32">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AZ32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA32">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="BB32">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="BC32">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD32">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BE32">
         <v>1000</v>
@@ -7229,157 +7229,157 @@
         <v>168</v>
       </c>
       <c r="F33">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G33">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H33">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I33">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J33">
+        <v>4.6</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>1.97</v>
+      </c>
+      <c r="M33">
+        <v>2.02</v>
+      </c>
+      <c r="N33">
+        <v>1.98</v>
+      </c>
+      <c r="O33">
+        <v>2.04</v>
+      </c>
+      <c r="P33">
+        <v>2.12</v>
+      </c>
+      <c r="Q33">
+        <v>2.3</v>
+      </c>
+      <c r="R33">
+        <v>1.76</v>
+      </c>
+      <c r="S33">
+        <v>1.89</v>
+      </c>
+      <c r="T33">
+        <v>13</v>
+      </c>
+      <c r="U33">
+        <v>14.5</v>
+      </c>
+      <c r="V33">
+        <v>22</v>
+      </c>
+      <c r="W33">
+        <v>25</v>
+      </c>
+      <c r="X33">
+        <v>48</v>
+      </c>
+      <c r="Y33">
+        <v>75</v>
+      </c>
+      <c r="Z33">
+        <v>14</v>
+      </c>
+      <c r="AA33">
+        <v>980</v>
+      </c>
+      <c r="AB33">
+        <v>6.8</v>
+      </c>
+      <c r="AC33">
         <v>7.6</v>
-      </c>
-      <c r="I33">
-        <v>9.4</v>
-      </c>
-      <c r="J33">
-        <v>4.5</v>
-      </c>
-      <c r="K33">
-        <v>4.9</v>
-      </c>
-      <c r="L33">
-        <v>1.94</v>
-      </c>
-      <c r="M33">
-        <v>2.2</v>
-      </c>
-      <c r="N33">
-        <v>1.84</v>
-      </c>
-      <c r="O33">
-        <v>2.08</v>
-      </c>
-      <c r="P33">
-        <v>2.06</v>
-      </c>
-      <c r="Q33">
-        <v>2.24</v>
-      </c>
-      <c r="R33">
-        <v>1.8</v>
-      </c>
-      <c r="S33">
-        <v>1.93</v>
-      </c>
-      <c r="T33">
-        <v>14</v>
-      </c>
-      <c r="U33">
-        <v>16.5</v>
-      </c>
-      <c r="V33">
-        <v>21</v>
-      </c>
-      <c r="W33">
-        <v>26</v>
-      </c>
-      <c r="X33">
-        <v>46</v>
-      </c>
-      <c r="Y33">
-        <v>980</v>
-      </c>
-      <c r="Z33">
-        <v>12.5</v>
-      </c>
-      <c r="AA33">
-        <v>980</v>
-      </c>
-      <c r="AB33">
-        <v>7.6</v>
-      </c>
-      <c r="AC33">
-        <v>8.199999999999999</v>
       </c>
       <c r="AD33">
         <v>9.6</v>
       </c>
       <c r="AE33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF33">
+        <v>28</v>
+      </c>
+      <c r="AG33">
+        <v>32</v>
+      </c>
+      <c r="AH33">
+        <v>14</v>
+      </c>
+      <c r="AI33">
+        <v>980</v>
+      </c>
+      <c r="AJ33">
+        <v>7.4</v>
+      </c>
+      <c r="AK33">
+        <v>8</v>
+      </c>
+      <c r="AL33">
+        <v>9.4</v>
+      </c>
+      <c r="AM33">
+        <v>10</v>
+      </c>
+      <c r="AN33">
         <v>25</v>
       </c>
-      <c r="AG33">
-        <v>980</v>
-      </c>
-      <c r="AH33">
-        <v>12.5</v>
-      </c>
-      <c r="AI33">
+      <c r="AO33">
+        <v>29</v>
+      </c>
+      <c r="AP33">
+        <v>14</v>
+      </c>
+      <c r="AQ33">
         <v>150</v>
-      </c>
-      <c r="AJ33">
-        <v>7.6</v>
-      </c>
-      <c r="AK33">
-        <v>8.4</v>
-      </c>
-      <c r="AL33">
-        <v>9</v>
-      </c>
-      <c r="AM33">
-        <v>10.5</v>
-      </c>
-      <c r="AN33">
-        <v>22</v>
-      </c>
-      <c r="AO33">
-        <v>27</v>
-      </c>
-      <c r="AP33">
-        <v>12</v>
-      </c>
-      <c r="AQ33">
-        <v>980</v>
       </c>
       <c r="AR33">
         <v>11.5</v>
       </c>
       <c r="AS33">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AT33">
+        <v>15</v>
+      </c>
+      <c r="AU33">
+        <v>17</v>
+      </c>
+      <c r="AV33">
+        <v>36</v>
+      </c>
+      <c r="AW33">
+        <v>980</v>
+      </c>
+      <c r="AX33">
         <v>14.5</v>
       </c>
-      <c r="AU33">
-        <v>15.5</v>
-      </c>
-      <c r="AV33">
-        <v>32</v>
-      </c>
-      <c r="AW33">
-        <v>40</v>
-      </c>
-      <c r="AX33">
-        <v>12.5</v>
-      </c>
       <c r="AY33">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AZ33">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="BA33">
         <v>8.199999999999999</v>
       </c>
       <c r="BB33">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="BC33">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="BD33">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="BE33">
         <v>1000</v>
@@ -7426,157 +7426,157 @@
         <v>169</v>
       </c>
       <c r="F34">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="G34">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H34">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <v>13.5</v>
+      </c>
+      <c r="J34">
+        <v>5.3</v>
+      </c>
+      <c r="K34">
+        <v>5.7</v>
+      </c>
+      <c r="L34">
+        <v>1.93</v>
+      </c>
+      <c r="M34">
+        <v>2.02</v>
+      </c>
+      <c r="N34">
+        <v>1.98</v>
+      </c>
+      <c r="O34">
+        <v>2.08</v>
+      </c>
+      <c r="P34">
+        <v>2.44</v>
+      </c>
+      <c r="Q34">
+        <v>2.74</v>
+      </c>
+      <c r="R34">
+        <v>1.57</v>
+      </c>
+      <c r="S34">
+        <v>1.69</v>
+      </c>
+      <c r="T34">
+        <v>13</v>
+      </c>
+      <c r="U34">
+        <v>15</v>
+      </c>
+      <c r="V34">
+        <v>27</v>
+      </c>
+      <c r="W34">
+        <v>32</v>
+      </c>
+      <c r="X34">
+        <v>14</v>
+      </c>
+      <c r="Y34">
+        <v>130</v>
+      </c>
+      <c r="Z34">
+        <v>15</v>
+      </c>
+      <c r="AA34">
+        <v>980</v>
+      </c>
+      <c r="AB34">
+        <v>6.2</v>
+      </c>
+      <c r="AC34">
+        <v>6.8</v>
+      </c>
+      <c r="AD34">
+        <v>11</v>
+      </c>
+      <c r="AE34">
         <v>12.5</v>
       </c>
-      <c r="I34">
-        <v>16</v>
-      </c>
-      <c r="J34">
-        <v>5.5</v>
-      </c>
-      <c r="K34">
-        <v>6</v>
-      </c>
-      <c r="L34">
-        <v>1.89</v>
-      </c>
-      <c r="M34">
-        <v>2.04</v>
-      </c>
-      <c r="N34">
-        <v>1.97</v>
-      </c>
-      <c r="O34">
-        <v>2.14</v>
-      </c>
-      <c r="P34">
-        <v>2.62</v>
-      </c>
-      <c r="Q34">
-        <v>2.86</v>
-      </c>
-      <c r="R34">
-        <v>1.53</v>
-      </c>
-      <c r="S34">
-        <v>1.62</v>
-      </c>
-      <c r="T34">
-        <v>12</v>
-      </c>
-      <c r="U34">
-        <v>18</v>
-      </c>
-      <c r="V34">
-        <v>5.5</v>
-      </c>
-      <c r="W34">
-        <v>40</v>
-      </c>
-      <c r="X34">
-        <v>6</v>
-      </c>
-      <c r="Y34">
-        <v>980</v>
-      </c>
-      <c r="Z34">
-        <v>6.4</v>
-      </c>
-      <c r="AA34">
-        <v>980</v>
-      </c>
-      <c r="AB34">
-        <v>5.9</v>
-      </c>
-      <c r="AC34">
-        <v>6.6</v>
-      </c>
-      <c r="AD34">
-        <v>10</v>
-      </c>
-      <c r="AE34">
-        <v>15.5</v>
-      </c>
       <c r="AF34">
+        <v>42</v>
+      </c>
+      <c r="AG34">
+        <v>55</v>
+      </c>
+      <c r="AH34">
+        <v>14.5</v>
+      </c>
+      <c r="AI34">
+        <v>980</v>
+      </c>
+      <c r="AJ34">
+        <v>6.2</v>
+      </c>
+      <c r="AK34">
+        <v>6.8</v>
+      </c>
+      <c r="AL34">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AM34">
+        <v>11</v>
+      </c>
+      <c r="AN34">
+        <v>34</v>
+      </c>
+      <c r="AO34">
+        <v>42</v>
+      </c>
+      <c r="AP34">
+        <v>14.5</v>
+      </c>
+      <c r="AQ34">
+        <v>980</v>
+      </c>
+      <c r="AR34">
+        <v>9</v>
+      </c>
+      <c r="AS34">
+        <v>10.5</v>
+      </c>
+      <c r="AT34">
+        <v>15</v>
+      </c>
+      <c r="AU34">
+        <v>17</v>
+      </c>
+      <c r="AV34">
+        <v>29</v>
+      </c>
+      <c r="AW34">
+        <v>55</v>
+      </c>
+      <c r="AX34">
+        <v>15</v>
+      </c>
+      <c r="AY34">
+        <v>980</v>
+      </c>
+      <c r="AZ34">
         <v>5.8</v>
       </c>
-      <c r="AG34">
-        <v>65</v>
-      </c>
-      <c r="AH34">
-        <v>6.2</v>
-      </c>
-      <c r="AI34">
-        <v>980</v>
-      </c>
-      <c r="AJ34">
-        <v>6</v>
-      </c>
-      <c r="AK34">
-        <v>7.2</v>
-      </c>
-      <c r="AL34">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AM34">
-        <v>13.5</v>
-      </c>
-      <c r="AN34">
-        <v>5.7</v>
-      </c>
-      <c r="AO34">
-        <v>55</v>
-      </c>
-      <c r="AP34">
-        <v>6.2</v>
-      </c>
-      <c r="AQ34">
-        <v>980</v>
-      </c>
-      <c r="AR34">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AS34">
-        <v>11</v>
-      </c>
-      <c r="AT34">
-        <v>14</v>
-      </c>
-      <c r="AU34">
-        <v>21</v>
-      </c>
-      <c r="AV34">
-        <v>5.9</v>
-      </c>
-      <c r="AW34">
-        <v>70</v>
-      </c>
-      <c r="AX34">
-        <v>18.5</v>
-      </c>
-      <c r="AY34">
-        <v>980</v>
-      </c>
-      <c r="AZ34">
-        <v>3.45</v>
-      </c>
       <c r="BA34">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="BB34">
-        <v>6.4</v>
+        <v>14.5</v>
       </c>
       <c r="BC34">
         <v>980</v>
       </c>
       <c r="BD34">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="BE34">
         <v>1000</v>
@@ -7626,31 +7626,31 @@
         <v>1.08</v>
       </c>
       <c r="G35">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="H35">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="I35">
         <v>980</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K35">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L35">
-        <v>1.27</v>
+        <v>1.96</v>
       </c>
       <c r="M35">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="N35">
         <v>1.03</v>
       </c>
       <c r="O35">
-        <v>4.6</v>
+        <v>2.04</v>
       </c>
       <c r="P35">
         <v>1.15</v>
@@ -7665,97 +7665,97 @@
         <v>7.6</v>
       </c>
       <c r="T35">
-        <v>1.03</v>
+        <v>1.49</v>
       </c>
       <c r="U35">
         <v>980</v>
       </c>
       <c r="V35">
-        <v>2.44</v>
+        <v>1.26</v>
       </c>
       <c r="W35">
         <v>980</v>
       </c>
       <c r="X35">
-        <v>3</v>
+        <v>1.26</v>
       </c>
       <c r="Y35">
         <v>1000</v>
       </c>
       <c r="Z35">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AA35">
         <v>1000</v>
       </c>
       <c r="AB35">
-        <v>2.44</v>
+        <v>1.26</v>
       </c>
       <c r="AC35">
         <v>980</v>
       </c>
       <c r="AD35">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="AE35">
         <v>980</v>
       </c>
       <c r="AF35">
-        <v>4.3</v>
+        <v>1.26</v>
       </c>
       <c r="AG35">
         <v>980</v>
       </c>
       <c r="AH35">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AI35">
         <v>1000</v>
       </c>
       <c r="AJ35">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="AK35">
         <v>1000</v>
       </c>
       <c r="AL35">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="AM35">
         <v>980</v>
       </c>
       <c r="AN35">
-        <v>7.8</v>
+        <v>1.26</v>
       </c>
       <c r="AO35">
         <v>980</v>
       </c>
       <c r="AP35">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AQ35">
         <v>1000</v>
       </c>
       <c r="AR35">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="AS35">
         <v>1000</v>
       </c>
       <c r="AT35">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="AU35">
         <v>1000</v>
       </c>
       <c r="AV35">
-        <v>7.8</v>
+        <v>1.26</v>
       </c>
       <c r="AW35">
         <v>1000</v>
       </c>
       <c r="AX35">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="AY35">
         <v>1000</v>
@@ -7764,16 +7764,16 @@
         <v>1.01</v>
       </c>
       <c r="BA35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB35">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="BC35">
         <v>1000</v>
       </c>
       <c r="BD35">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="BE35">
         <v>1000</v>
@@ -7820,76 +7820,76 @@
         <v>171</v>
       </c>
       <c r="F36">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="G36">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="H36">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="I36">
+        <v>3.05</v>
+      </c>
+      <c r="J36">
         <v>3.15</v>
       </c>
-      <c r="J36">
-        <v>3.1</v>
-      </c>
       <c r="K36">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L36">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="M36">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="N36">
         <v>2.34</v>
       </c>
       <c r="O36">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="P36">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="Q36">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R36">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S36">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T36">
+        <v>9.6</v>
+      </c>
+      <c r="U36">
+        <v>13.5</v>
+      </c>
+      <c r="V36">
+        <v>7.8</v>
+      </c>
+      <c r="W36">
+        <v>12.5</v>
+      </c>
+      <c r="X36">
+        <v>16</v>
+      </c>
+      <c r="Y36">
+        <v>22</v>
+      </c>
+      <c r="Z36">
+        <v>4</v>
+      </c>
+      <c r="AA36">
+        <v>60</v>
+      </c>
+      <c r="AB36">
         <v>9</v>
       </c>
-      <c r="U36">
+      <c r="AC36">
         <v>12.5</v>
-      </c>
-      <c r="V36">
-        <v>7.6</v>
-      </c>
-      <c r="W36">
-        <v>10.5</v>
-      </c>
-      <c r="X36">
-        <v>16.5</v>
-      </c>
-      <c r="Y36">
-        <v>980</v>
-      </c>
-      <c r="Z36">
-        <v>4.3</v>
-      </c>
-      <c r="AA36">
-        <v>980</v>
-      </c>
-      <c r="AB36">
-        <v>8.4</v>
-      </c>
-      <c r="AC36">
-        <v>11.5</v>
       </c>
       <c r="AD36">
         <v>6.6</v>
@@ -7898,79 +7898,79 @@
         <v>9</v>
       </c>
       <c r="AF36">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AG36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH36">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="AI36">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ36">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK36">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AL36">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AM36">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN36">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AO36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP36">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AQ36">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AR36">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AS36">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AT36">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="AU36">
         <v>42</v>
       </c>
       <c r="AV36">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="AW36">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AX36">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="AY36">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AZ36">
-        <v>2.92</v>
+        <v>3.9</v>
       </c>
       <c r="BA36">
         <v>40</v>
       </c>
       <c r="BB36">
-        <v>2.96</v>
+        <v>3.95</v>
       </c>
       <c r="BC36">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="BD36">
-        <v>2.98</v>
+        <v>4.3</v>
       </c>
       <c r="BE36">
         <v>1000</v>
@@ -8017,67 +8017,67 @@
         <v>172</v>
       </c>
       <c r="F37">
+        <v>1.15</v>
+      </c>
+      <c r="G37">
         <v>1.17</v>
       </c>
-      <c r="G37">
-        <v>1.18</v>
-      </c>
       <c r="H37">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I37">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L37">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="M37">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="N37">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O37">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="P37">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="Q37">
         <v>3.35</v>
       </c>
       <c r="R37">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S37">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="T37">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="U37">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="V37">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="W37">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="X37">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="Y37">
         <v>980</v>
       </c>
       <c r="Z37">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AA37">
         <v>1000</v>
@@ -8086,88 +8086,88 @@
         <v>7</v>
       </c>
       <c r="AC37">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD37">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE37">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG37">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AH37">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AI37">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ37">
+        <v>5.4</v>
+      </c>
+      <c r="AK37">
+        <v>6.8</v>
+      </c>
+      <c r="AL37">
+        <v>11.5</v>
+      </c>
+      <c r="AM37">
+        <v>18</v>
+      </c>
+      <c r="AN37">
         <v>5.8</v>
       </c>
-      <c r="AK37">
-        <v>7.4</v>
-      </c>
-      <c r="AL37">
-        <v>11</v>
-      </c>
-      <c r="AM37">
-        <v>16.5</v>
-      </c>
-      <c r="AN37">
-        <v>4.9</v>
-      </c>
       <c r="AO37">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AP37">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AQ37">
         <v>980</v>
       </c>
       <c r="AR37">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AS37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT37">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU37">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV37">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="AW37">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AX37">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AY37">
         <v>980</v>
       </c>
       <c r="AZ37">
-        <v>2.5</v>
+        <v>2.96</v>
       </c>
       <c r="BA37">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="BB37">
-        <v>5.2</v>
+        <v>17.5</v>
       </c>
       <c r="BC37">
         <v>1000</v>
       </c>
       <c r="BD37">
-        <v>5.2</v>
+        <v>34</v>
       </c>
       <c r="BE37">
         <v>1000</v>
@@ -8214,67 +8214,67 @@
         <v>173</v>
       </c>
       <c r="F38">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="G38">
         <v>1.17</v>
       </c>
       <c r="H38">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I38">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J38">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="K38">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="L38">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="M38">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="N38">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="O38">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="P38">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="Q38">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="R38">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S38">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="T38">
         <v>29</v>
       </c>
       <c r="U38">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V38">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="W38">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X38">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="Y38">
         <v>980</v>
       </c>
       <c r="Z38">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="AA38">
         <v>1000</v>
@@ -8283,88 +8283,88 @@
         <v>9.4</v>
       </c>
       <c r="AC38">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD38">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE38">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF38">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG38">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AH38">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="AI38">
-        <v>710</v>
+        <v>610</v>
       </c>
       <c r="AJ38">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AK38">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AL38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM38">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN38">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AO38">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP38">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="AQ38">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="AR38">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AS38">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AT38">
         <v>12.5</v>
       </c>
       <c r="AU38">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AV38">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="AW38">
         <v>65</v>
       </c>
       <c r="AX38">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="AY38">
         <v>980</v>
       </c>
       <c r="AZ38">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="BA38">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="BB38">
-        <v>5.7</v>
+        <v>9.4</v>
       </c>
       <c r="BC38">
-        <v>960</v>
+        <v>850</v>
       </c>
       <c r="BD38">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="BE38">
         <v>1000</v>
@@ -8411,25 +8411,25 @@
         <v>174</v>
       </c>
       <c r="F39">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G39">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H39">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I39">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J39">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K39">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L39">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="M39">
         <v>1.81</v>
@@ -8438,7 +8438,7 @@
         <v>2.24</v>
       </c>
       <c r="O39">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="P39">
         <v>1.94</v>
@@ -8447,31 +8447,31 @@
         <v>2.06</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S39">
         <v>2.08</v>
       </c>
       <c r="T39">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="U39">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="V39">
         <v>11</v>
       </c>
       <c r="W39">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X39">
-        <v>6.4</v>
+        <v>19</v>
       </c>
       <c r="Y39">
         <v>28</v>
       </c>
       <c r="Z39">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA39">
         <v>980</v>
@@ -8489,13 +8489,13 @@
         <v>7.8</v>
       </c>
       <c r="AF39">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG39">
         <v>17.5</v>
       </c>
       <c r="AH39">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AI39">
         <v>980</v>
@@ -8513,55 +8513,55 @@
         <v>11.5</v>
       </c>
       <c r="AN39">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AO39">
         <v>23</v>
       </c>
       <c r="AP39">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AQ39">
         <v>980</v>
       </c>
       <c r="AR39">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AS39">
         <v>980</v>
       </c>
       <c r="AT39">
-        <v>6.4</v>
+        <v>20</v>
       </c>
       <c r="AU39">
         <v>29</v>
       </c>
       <c r="AV39">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AW39">
         <v>980</v>
       </c>
       <c r="AX39">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AY39">
         <v>980</v>
       </c>
       <c r="AZ39">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="BA39">
         <v>23</v>
       </c>
       <c r="BB39">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BC39">
         <v>980</v>
       </c>
       <c r="BD39">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BE39">
         <v>1000</v>
@@ -8608,34 +8608,34 @@
         <v>175</v>
       </c>
       <c r="F40">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="G40">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="H40">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I40">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J40">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K40">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L40">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="M40">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="N40">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="O40">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="P40">
         <v>1.84</v>
@@ -8644,70 +8644,70 @@
         <v>2.06</v>
       </c>
       <c r="R40">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
         <v>2.2</v>
       </c>
       <c r="T40">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V40">
         <v>9.6</v>
       </c>
       <c r="W40">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="X40">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y40">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z40">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="AA40">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB40">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC40">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD40">
         <v>6.6</v>
       </c>
       <c r="AE40">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF40">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG40">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH40">
-        <v>8.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="AI40">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ40">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK40">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AL40">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AM40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN40">
         <v>16</v>
@@ -8716,49 +8716,49 @@
         <v>22</v>
       </c>
       <c r="AP40">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="AQ40">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AR40">
         <v>27</v>
       </c>
       <c r="AS40">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AT40">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU40">
+        <v>36</v>
+      </c>
+      <c r="AV40">
+        <v>6</v>
+      </c>
+      <c r="AW40">
+        <v>60</v>
+      </c>
+      <c r="AX40">
+        <v>6.4</v>
+      </c>
+      <c r="AY40">
+        <v>980</v>
+      </c>
+      <c r="AZ40">
+        <v>5.5</v>
+      </c>
+      <c r="BA40">
         <v>32</v>
       </c>
-      <c r="AV40">
-        <v>8.4</v>
-      </c>
-      <c r="AW40">
-        <v>980</v>
-      </c>
-      <c r="AX40">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AY40">
-        <v>980</v>
-      </c>
-      <c r="AZ40">
-        <v>7.2</v>
-      </c>
-      <c r="BA40">
-        <v>28</v>
-      </c>
       <c r="BB40">
-        <v>8.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="BC40">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="BD40">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="BE40">
         <v>1000</v>
@@ -8808,34 +8808,34 @@
         <v>1.55</v>
       </c>
       <c r="G41">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="H41">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K41">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L41">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="O41">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="P41">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q41">
         <v>2.32</v>
@@ -8853,7 +8853,7 @@
         <v>14.5</v>
       </c>
       <c r="V41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W41">
         <v>23</v>
@@ -8871,25 +8871,25 @@
         <v>980</v>
       </c>
       <c r="AB41">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC41">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD41">
         <v>8.6</v>
       </c>
       <c r="AE41">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF41">
-        <v>9.199999999999999</v>
+        <v>24</v>
       </c>
       <c r="AG41">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AH41">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AI41">
         <v>980</v>
@@ -8898,7 +8898,7 @@
         <v>7.4</v>
       </c>
       <c r="AK41">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AL41">
         <v>9.199999999999999</v>
@@ -8907,13 +8907,13 @@
         <v>10.5</v>
       </c>
       <c r="AN41">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AO41">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AP41">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AQ41">
         <v>980</v>
@@ -8922,19 +8922,19 @@
         <v>12.5</v>
       </c>
       <c r="AS41">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AT41">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AU41">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AV41">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AW41">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AX41">
         <v>9.800000000000001</v>
@@ -8943,10 +8943,10 @@
         <v>980</v>
       </c>
       <c r="AZ41">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="BA41">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB41">
         <v>9.800000000000001</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-10.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-10.xlsx
@@ -8608,25 +8608,25 @@
         <v>175</v>
       </c>
       <c r="F40">
-        <v>2.54</v>
+        <v>2.86</v>
       </c>
       <c r="G40">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="H40">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="I40">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="J40">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K40">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L40">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M40">
         <v>1.81</v>
@@ -8638,127 +8638,127 @@
         <v>2.42</v>
       </c>
       <c r="P40">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="Q40">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S40">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T40">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="U40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V40">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="W40">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="X40">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y40">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z40">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA40">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AB40">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC40">
         <v>10.5</v>
       </c>
       <c r="AD40">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE40">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AF40">
         <v>11.5</v>
       </c>
       <c r="AG40">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH40">
-        <v>5.8</v>
+        <v>29</v>
       </c>
       <c r="AI40">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ40">
+        <v>15</v>
+      </c>
+      <c r="AK40">
+        <v>18.5</v>
+      </c>
+      <c r="AL40">
+        <v>11.5</v>
+      </c>
+      <c r="AM40">
         <v>13.5</v>
       </c>
-      <c r="AK40">
+      <c r="AN40">
         <v>17.5</v>
-      </c>
-      <c r="AL40">
-        <v>10</v>
-      </c>
-      <c r="AM40">
-        <v>14</v>
-      </c>
-      <c r="AN40">
-        <v>16</v>
       </c>
       <c r="AO40">
         <v>22</v>
       </c>
       <c r="AP40">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="AQ40">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR40">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AS40">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AT40">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AU40">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AV40">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="AW40">
         <v>60</v>
       </c>
       <c r="AX40">
-        <v>6.4</v>
+        <v>42</v>
       </c>
       <c r="AY40">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AZ40">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="BA40">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="BB40">
-        <v>5.8</v>
+        <v>22</v>
       </c>
       <c r="BC40">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="BD40">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="BE40">
         <v>1000</v>
@@ -8805,10 +8805,10 @@
         <v>176</v>
       </c>
       <c r="F41">
+        <v>1.5</v>
+      </c>
+      <c r="G41">
         <v>1.55</v>
-      </c>
-      <c r="G41">
-        <v>1.57</v>
       </c>
       <c r="H41">
         <v>7.6</v>
@@ -8817,88 +8817,88 @@
         <v>8.6</v>
       </c>
       <c r="J41">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K41">
         <v>4.7</v>
       </c>
       <c r="L41">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="M41">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="P41">
         <v>2.16</v>
       </c>
       <c r="Q41">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R41">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S41">
         <v>1.87</v>
       </c>
       <c r="T41">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="U41">
         <v>14.5</v>
       </c>
       <c r="V41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W41">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X41">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Y41">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="Z41">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AA41">
         <v>980</v>
       </c>
       <c r="AB41">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC41">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD41">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE41">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AF41">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="AG41">
         <v>32</v>
       </c>
       <c r="AH41">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AI41">
         <v>980</v>
       </c>
       <c r="AJ41">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AK41">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AL41">
         <v>9.199999999999999</v>
@@ -8907,55 +8907,55 @@
         <v>10.5</v>
       </c>
       <c r="AN41">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO41">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP41">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AQ41">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AR41">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AS41">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AT41">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AU41">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AV41">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AW41">
         <v>48</v>
       </c>
       <c r="AX41">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AY41">
-        <v>980</v>
+        <v>320</v>
       </c>
       <c r="AZ41">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="BA41">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BB41">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="BC41">
         <v>980</v>
       </c>
       <c r="BD41">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="BE41">
         <v>1000</v>
